--- a/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
+++ b/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CSUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEBE55-8C95-4A08-B590-D85BB4C9FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D1A48-B176-47DC-AA53-3E6835A5A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="4" xr2:uid="{82C81399-C775-48F3-A336-58DE5F35A6D9}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Interop" sheetId="7" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FatosIn!$M$1:$M$525</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="1207">
   <si>
     <t>Indivíduo</t>
   </si>
@@ -3676,6 +3679,42 @@
   </si>
   <si>
     <t>é.máquina.radiológica</t>
+  </si>
+  <si>
+    <t>0 0 Val</t>
+  </si>
+  <si>
+    <t>mobília</t>
+  </si>
+  <si>
+    <t>"Móbiliário"</t>
+  </si>
+  <si>
+    <t>"Móbiliário de exame"</t>
+  </si>
+  <si>
+    <t>"Móbiliário de transporte"</t>
+  </si>
+  <si>
+    <t>"Móbiliário neonatal"</t>
+  </si>
+  <si>
+    <t>"Móbiliário cirúrgico"</t>
+  </si>
+  <si>
+    <t>"Móbiliário pediátrico"</t>
+  </si>
+  <si>
+    <t>"Móbiliário de transporte de hoteleria"</t>
+  </si>
+  <si>
+    <t>"Móbiliário de hoteleria"</t>
+  </si>
+  <si>
+    <t>"Equipamento cirúrgico"</t>
+  </si>
+  <si>
+    <t>"Dispositivo cirúrgico"</t>
   </si>
 </sst>
 </file>
@@ -4708,7 +4747,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45962.503517476849</v>
+        <v>45962.522922916665</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6601,8 +6640,8 @@
   <dimension ref="A1:S524"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6612,7 +6651,8 @@
     <col min="3" max="3" width="12.19921875" style="47" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="47" customWidth="1"/>
     <col min="5" max="5" width="7.19921875" style="47" customWidth="1"/>
-    <col min="6" max="7" width="5.8984375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="21" style="47" customWidth="1"/>
     <col min="8" max="8" width="6.09765625" style="52" customWidth="1"/>
     <col min="9" max="9" width="7.69921875" style="52" customWidth="1"/>
     <col min="10" max="10" width="5.69921875" style="52" customWidth="1"/>
@@ -6624,7 +6664,7 @@
     <col min="16" max="16" width="8.69921875" style="52" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="7" customWidth="1"/>
     <col min="18" max="18" width="8.19921875" style="52" customWidth="1"/>
-    <col min="19" max="19" width="3.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="4.69921875" style="7" customWidth="1"/>
     <col min="20" max="16384" width="8.796875" style="47"/>
   </cols>
   <sheetData>
@@ -6684,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>1087</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6703,11 +6743,11 @@
       <c r="E2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>26</v>
+      <c r="F2" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>26</v>
@@ -6762,11 +6802,11 @@
       <c r="E3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>26</v>
+      <c r="F3" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>26</v>
@@ -6821,11 +6861,11 @@
       <c r="E4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>26</v>
+      <c r="F4" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>26</v>
@@ -6880,11 +6920,11 @@
       <c r="E5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>26</v>
+      <c r="F5" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>26</v>
@@ -6940,10 +6980,10 @@
       <c r="E6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="32" t="s">
@@ -7003,10 +7043,10 @@
       <c r="E7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="32" t="s">
@@ -7066,10 +7106,10 @@
       <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="32" t="s">
@@ -7129,10 +7169,10 @@
       <c r="E9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="55" t="s">
+      <c r="F9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="32" t="s">
@@ -7192,10 +7232,10 @@
       <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="55" t="s">
+      <c r="F10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="32" t="s">
@@ -7255,10 +7295,10 @@
       <c r="E11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="32" t="s">
@@ -7318,10 +7358,10 @@
       <c r="E12" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="55" t="s">
+      <c r="F12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -7381,10 +7421,10 @@
       <c r="E13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="55" t="s">
+      <c r="F13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="32" t="s">
@@ -7444,10 +7484,10 @@
       <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="55" t="s">
+      <c r="F14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="32" t="s">
@@ -7507,11 +7547,11 @@
       <c r="E15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>26</v>
+      <c r="F15" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>1081</v>
@@ -7570,11 +7610,11 @@
       <c r="E16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>26</v>
+      <c r="F16" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>1081</v>
@@ -7633,10 +7673,10 @@
       <c r="E17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="55" t="s">
+      <c r="F17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="32" t="s">
@@ -7696,11 +7736,11 @@
       <c r="E18" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>26</v>
+      <c r="F18" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>1081</v>
@@ -7759,11 +7799,11 @@
       <c r="E19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>26</v>
+      <c r="F19" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>1081</v>
@@ -7822,11 +7862,11 @@
       <c r="E20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>26</v>
+      <c r="F20" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>1081</v>
@@ -7885,10 +7925,10 @@
       <c r="E21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="55" t="s">
+      <c r="F21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="32" t="s">
@@ -7948,10 +7988,10 @@
       <c r="E22" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="55" t="s">
+      <c r="F22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="32" t="s">
@@ -8011,11 +8051,11 @@
       <c r="E23" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>26</v>
+      <c r="F23" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H23" s="32" t="s">
         <v>1081</v>
@@ -8074,11 +8114,11 @@
       <c r="E24" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>26</v>
+      <c r="F24" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>1081</v>
@@ -8137,10 +8177,10 @@
       <c r="E25" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="55" t="s">
+      <c r="F25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="32" t="s">
@@ -8200,10 +8240,10 @@
       <c r="E26" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="55" t="s">
+      <c r="F26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -8263,10 +8303,10 @@
       <c r="E27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="55" t="s">
+      <c r="F27" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="32" t="s">
@@ -8326,10 +8366,10 @@
       <c r="E28" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="55" t="s">
+      <c r="F28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="32" t="s">
@@ -8389,10 +8429,10 @@
       <c r="E29" s="55" t="s">
         <v>1183</v>
       </c>
-      <c r="F29" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="55" t="s">
+      <c r="F29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="32" t="s">
@@ -8452,10 +8492,10 @@
       <c r="E30" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="F30" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="32" t="s">
@@ -8515,10 +8555,10 @@
       <c r="E31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="55" t="s">
+      <c r="F31" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="32" t="s">
@@ -8578,10 +8618,10 @@
       <c r="E32" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="55" t="s">
+      <c r="F32" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="32" t="s">
@@ -8641,10 +8681,10 @@
       <c r="E33" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="32" t="s">
@@ -8704,10 +8744,10 @@
       <c r="E34" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="55" t="s">
+      <c r="F34" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="32" t="s">
@@ -8767,10 +8807,10 @@
       <c r="E35" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="55" t="s">
+      <c r="F35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="32" t="s">
@@ -8830,10 +8870,10 @@
       <c r="E36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="55" t="s">
+      <c r="F36" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="32" t="s">
@@ -8893,10 +8933,10 @@
       <c r="E37" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="55" t="s">
+      <c r="F37" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="32" t="s">
@@ -8956,10 +8996,10 @@
       <c r="E38" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="55" t="s">
+      <c r="F38" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="32" t="s">
@@ -9019,10 +9059,10 @@
       <c r="E39" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="55" t="s">
+      <c r="F39" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="32" t="s">
@@ -9082,10 +9122,10 @@
       <c r="E40" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="55" t="s">
+      <c r="F40" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="32" t="s">
@@ -9145,10 +9185,10 @@
       <c r="E41" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="55" t="s">
+      <c r="F41" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="32" t="s">
@@ -9208,10 +9248,10 @@
       <c r="E42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="55" t="s">
+      <c r="F42" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="32" t="s">
@@ -9271,10 +9311,10 @@
       <c r="E43" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="55" t="s">
+      <c r="F43" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="32" t="s">
@@ -9334,10 +9374,10 @@
       <c r="E44" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="F44" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="32" t="s">
@@ -9397,10 +9437,10 @@
       <c r="E45" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="55" t="s">
+      <c r="F45" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H45" s="32" t="s">
@@ -9460,10 +9500,10 @@
       <c r="E46" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="55" t="s">
+      <c r="F46" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H46" s="32" t="s">
@@ -9523,10 +9563,10 @@
       <c r="E47" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="55" t="s">
+      <c r="F47" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H47" s="32" t="s">
@@ -9586,10 +9626,10 @@
       <c r="E48" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="55" t="s">
+      <c r="F48" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H48" s="32" t="s">
@@ -9649,11 +9689,11 @@
       <c r="E49" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>26</v>
+      <c r="F49" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>1206</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>1081</v>
@@ -9712,10 +9752,10 @@
       <c r="E50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="55" t="s">
+      <c r="F50" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H50" s="32" t="s">
@@ -9775,10 +9815,10 @@
       <c r="E51" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="55" t="s">
+      <c r="F51" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H51" s="32" t="s">
@@ -9838,10 +9878,10 @@
       <c r="E52" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="55" t="s">
+      <c r="F52" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H52" s="32" t="s">
@@ -9901,10 +9941,10 @@
       <c r="E53" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="55" t="s">
+      <c r="F53" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H53" s="32" t="s">
@@ -9964,11 +10004,11 @@
       <c r="E54" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>26</v>
+      <c r="F54" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H54" s="32" t="s">
         <v>1081</v>
@@ -10027,11 +10067,11 @@
       <c r="E55" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="55" t="s">
-        <v>26</v>
+      <c r="F55" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G55" s="53" t="s">
+        <v>1200</v>
       </c>
       <c r="H55" s="32" t="s">
         <v>1081</v>
@@ -10090,10 +10130,10 @@
       <c r="E56" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="55" t="s">
+      <c r="F56" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="32" t="s">
@@ -10153,11 +10193,11 @@
       <c r="E57" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>26</v>
+      <c r="F57" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H57" s="32" t="s">
         <v>1081</v>
@@ -10216,11 +10256,11 @@
       <c r="E58" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="55" t="s">
-        <v>26</v>
+      <c r="F58" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>1201</v>
       </c>
       <c r="H58" s="32" t="s">
         <v>1081</v>
@@ -10279,10 +10319,10 @@
       <c r="E59" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="55" t="s">
+      <c r="F59" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H59" s="32" t="s">
@@ -10342,10 +10382,10 @@
       <c r="E60" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="55" t="s">
+      <c r="F60" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H60" s="32" t="s">
@@ -10405,11 +10445,11 @@
       <c r="E61" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="55" t="s">
-        <v>26</v>
+      <c r="F61" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>1200</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>1081</v>
@@ -10468,10 +10508,10 @@
       <c r="E62" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="55" t="s">
+      <c r="F62" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H62" s="32" t="s">
@@ -10531,10 +10571,10 @@
       <c r="E63" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="55" t="s">
+      <c r="F63" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H63" s="32" t="s">
@@ -10594,10 +10634,10 @@
       <c r="E64" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="55" t="s">
+      <c r="F64" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H64" s="32" t="s">
@@ -10657,10 +10697,10 @@
       <c r="E65" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="55" t="s">
+      <c r="F65" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H65" s="32" t="s">
@@ -10720,10 +10760,10 @@
       <c r="E66" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="55" t="s">
+      <c r="F66" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H66" s="32" t="s">
@@ -10783,10 +10823,10 @@
       <c r="E67" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="55" t="s">
+      <c r="F67" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H67" s="32" t="s">
@@ -10846,10 +10886,10 @@
       <c r="E68" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="55" t="s">
+      <c r="F68" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H68" s="32" t="s">
@@ -10909,10 +10949,10 @@
       <c r="E69" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="55" t="s">
+      <c r="F69" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H69" s="32" t="s">
@@ -10972,10 +11012,10 @@
       <c r="E70" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F70" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="55" t="s">
+      <c r="F70" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H70" s="32" t="s">
@@ -11035,10 +11075,10 @@
       <c r="E71" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="55" t="s">
+      <c r="F71" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H71" s="32" t="s">
@@ -11098,10 +11138,10 @@
       <c r="E72" s="55" t="s">
         <v>1187</v>
       </c>
-      <c r="F72" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="55" t="s">
+      <c r="F72" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H72" s="32" t="s">
@@ -11161,10 +11201,10 @@
       <c r="E73" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="55" t="s">
+      <c r="F73" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H73" s="32" t="s">
@@ -11224,10 +11264,10 @@
       <c r="E74" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="55" t="s">
+      <c r="F74" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H74" s="32" t="s">
@@ -11287,10 +11327,10 @@
       <c r="E75" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="55" t="s">
+      <c r="F75" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H75" s="32" t="s">
@@ -11350,10 +11390,10 @@
       <c r="E76" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="55" t="s">
+      <c r="F76" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H76" s="32" t="s">
@@ -11413,10 +11453,10 @@
       <c r="E77" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="55" t="s">
+      <c r="F77" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H77" s="32" t="s">
@@ -11476,10 +11516,10 @@
       <c r="E78" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="55" t="s">
+      <c r="F78" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H78" s="32" t="s">
@@ -11539,10 +11579,10 @@
       <c r="E79" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F79" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="55" t="s">
+      <c r="F79" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H79" s="32" t="s">
@@ -11602,10 +11642,10 @@
       <c r="E80" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="55" t="s">
+      <c r="F80" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H80" s="32" t="s">
@@ -11665,10 +11705,10 @@
       <c r="E81" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="55" t="s">
+      <c r="F81" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H81" s="32" t="s">
@@ -11728,10 +11768,10 @@
       <c r="E82" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="55" t="s">
+      <c r="F82" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H82" s="32" t="s">
@@ -11791,10 +11831,10 @@
       <c r="E83" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="55" t="s">
+      <c r="F83" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H83" s="32" t="s">
@@ -11854,10 +11894,10 @@
       <c r="E84" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="55" t="s">
+      <c r="F84" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H84" s="32" t="s">
@@ -11917,10 +11957,10 @@
       <c r="E85" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="55" t="s">
+      <c r="F85" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H85" s="32" t="s">
@@ -11980,10 +12020,10 @@
       <c r="E86" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="55" t="s">
+      <c r="F86" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H86" s="32" t="s">
@@ -12043,10 +12083,10 @@
       <c r="E87" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="55" t="s">
+      <c r="F87" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H87" s="32" t="s">
@@ -12106,11 +12146,11 @@
       <c r="E88" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="55" t="s">
-        <v>26</v>
+      <c r="F88" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G88" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H88" s="32" t="s">
         <v>1081</v>
@@ -12169,11 +12209,11 @@
       <c r="E89" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="55" t="s">
-        <v>26</v>
+      <c r="F89" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G89" s="53" t="s">
+        <v>1202</v>
       </c>
       <c r="H89" s="32" t="s">
         <v>1081</v>
@@ -12232,10 +12272,10 @@
       <c r="E90" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="55" t="s">
+      <c r="F90" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H90" s="32" t="s">
@@ -12295,11 +12335,11 @@
       <c r="E91" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="55" t="s">
-        <v>26</v>
+      <c r="F91" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H91" s="32" t="s">
         <v>1081</v>
@@ -12358,11 +12398,11 @@
       <c r="E92" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="55" t="s">
-        <v>26</v>
+      <c r="F92" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H92" s="32" t="s">
         <v>1081</v>
@@ -12421,11 +12461,11 @@
       <c r="E93" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="55" t="s">
-        <v>26</v>
+      <c r="F93" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H93" s="32" t="s">
         <v>1081</v>
@@ -12484,11 +12524,11 @@
       <c r="E94" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F94" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="55" t="s">
-        <v>26</v>
+      <c r="F94" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G94" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H94" s="32" t="s">
         <v>1081</v>
@@ -12547,11 +12587,11 @@
       <c r="E95" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="55" t="s">
-        <v>26</v>
+      <c r="F95" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H95" s="32" t="s">
         <v>1081</v>
@@ -12610,10 +12650,10 @@
       <c r="E96" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="55" t="s">
+      <c r="F96" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H96" s="32" t="s">
@@ -12673,10 +12713,10 @@
       <c r="E97" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="55" t="s">
+      <c r="F97" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H97" s="32" t="s">
@@ -12736,10 +12776,10 @@
       <c r="E98" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="55" t="s">
+      <c r="F98" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H98" s="32" t="s">
@@ -12799,10 +12839,10 @@
       <c r="E99" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="55" t="s">
+      <c r="F99" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H99" s="32" t="s">
@@ -12862,11 +12902,11 @@
       <c r="E100" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="55" t="s">
-        <v>26</v>
+      <c r="F100" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G100" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>1081</v>
@@ -12925,10 +12965,10 @@
       <c r="E101" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="55" t="s">
+      <c r="F101" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H101" s="32" t="s">
@@ -12988,10 +13028,10 @@
       <c r="E102" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="55" t="s">
+      <c r="F102" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H102" s="32" t="s">
@@ -13043,7 +13083,7 @@
       </c>
       <c r="C103" s="34" t="str">
         <f>IF(VALUE(O103)=1,"SUS.Equipamento",IF(VALUE(Q103)=1,"SUS.Dispositivo","SUS.Mobília"))</f>
-        <v>SUS.Dispositivo</v>
+        <v>SUS.Equipamento</v>
       </c>
       <c r="D103" s="54" t="s">
         <v>26</v>
@@ -13051,11 +13091,11 @@
       <c r="E103" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="55" t="s">
-        <v>26</v>
+      <c r="F103" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>1205</v>
       </c>
       <c r="H103" s="32" t="s">
         <v>1081</v>
@@ -13081,14 +13121,14 @@
         <v>1082</v>
       </c>
       <c r="O103" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="32" t="s">
         <v>1083</v>
       </c>
       <c r="Q103" s="8">
         <f>IF(AND(O103=0, S103=0), 1, 0 )</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="32" t="s">
         <v>1084</v>
@@ -13106,7 +13146,7 @@
       </c>
       <c r="C104" s="34" t="str">
         <f>IF(VALUE(O104)=1,"SUS.Equipamento",IF(VALUE(Q104)=1,"SUS.Dispositivo","SUS.Mobília"))</f>
-        <v>SUS.Dispositivo</v>
+        <v>SUS.Equipamento</v>
       </c>
       <c r="D104" s="54" t="s">
         <v>26</v>
@@ -13114,11 +13154,11 @@
       <c r="E104" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="55" t="s">
-        <v>26</v>
+      <c r="F104" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>1205</v>
       </c>
       <c r="H104" s="32" t="s">
         <v>1081</v>
@@ -13144,14 +13184,14 @@
         <v>1082</v>
       </c>
       <c r="O104" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" s="32" t="s">
         <v>1083</v>
       </c>
       <c r="Q104" s="8">
         <f>IF(AND(O104=0, S104=0), 1, 0 )</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="32" t="s">
         <v>1084</v>
@@ -13177,10 +13217,10 @@
       <c r="E105" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F105" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="55" t="s">
+      <c r="F105" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H105" s="32" t="s">
@@ -13240,10 +13280,10 @@
       <c r="E106" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="55" t="s">
+      <c r="F106" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H106" s="32" t="s">
@@ -13303,10 +13343,10 @@
       <c r="E107" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="55" t="s">
+      <c r="F107" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H107" s="32" t="s">
@@ -13366,10 +13406,10 @@
       <c r="E108" s="55" t="s">
         <v>1186</v>
       </c>
-      <c r="F108" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="55" t="s">
+      <c r="F108" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H108" s="32" t="s">
@@ -13429,10 +13469,10 @@
       <c r="E109" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="55" t="s">
+      <c r="F109" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H109" s="32" t="s">
@@ -13492,10 +13532,10 @@
       <c r="E110" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F110" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="55" t="s">
+      <c r="F110" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H110" s="32" t="s">
@@ -13555,11 +13595,11 @@
       <c r="E111" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F111" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="55" t="s">
-        <v>26</v>
+      <c r="F111" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G111" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>1081</v>
@@ -13618,11 +13658,11 @@
       <c r="E112" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F112" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="55" t="s">
-        <v>26</v>
+      <c r="F112" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G112" s="53" t="s">
+        <v>1201</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>1081</v>
@@ -13681,11 +13721,11 @@
       <c r="E113" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F113" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="55" t="s">
-        <v>26</v>
+      <c r="F113" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>1081</v>
@@ -13744,11 +13784,11 @@
       <c r="E114" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="55" t="s">
-        <v>26</v>
+      <c r="F114" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G114" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>1081</v>
@@ -13807,10 +13847,10 @@
       <c r="E115" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F115" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="55" t="s">
+      <c r="F115" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H115" s="32" t="s">
@@ -13870,11 +13910,11 @@
       <c r="E116" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F116" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="55" t="s">
-        <v>26</v>
+      <c r="F116" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G116" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>1081</v>
@@ -13933,10 +13973,10 @@
       <c r="E117" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="55" t="s">
+      <c r="F117" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H117" s="32" t="s">
@@ -13996,10 +14036,10 @@
       <c r="E118" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F118" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="55" t="s">
+      <c r="F118" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H118" s="32" t="s">
@@ -14059,10 +14099,10 @@
       <c r="E119" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F119" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="55" t="s">
+      <c r="F119" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H119" s="32" t="s">
@@ -14122,10 +14162,10 @@
       <c r="E120" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F120" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="55" t="s">
+      <c r="F120" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H120" s="32" t="s">
@@ -14185,10 +14225,10 @@
       <c r="E121" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F121" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="55" t="s">
+      <c r="F121" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H121" s="32" t="s">
@@ -14248,10 +14288,10 @@
       <c r="E122" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F122" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="55" t="s">
+      <c r="F122" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H122" s="32" t="s">
@@ -14311,10 +14351,10 @@
       <c r="E123" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F123" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="55" t="s">
+      <c r="F123" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H123" s="32" t="s">
@@ -14374,10 +14414,10 @@
       <c r="E124" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F124" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="55" t="s">
+      <c r="F124" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H124" s="32" t="s">
@@ -14437,11 +14477,11 @@
       <c r="E125" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F125" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" s="55" t="s">
-        <v>26</v>
+      <c r="F125" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G125" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>1081</v>
@@ -14500,10 +14540,10 @@
       <c r="E126" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F126" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="55" t="s">
+      <c r="F126" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H126" s="32" t="s">
@@ -14563,10 +14603,10 @@
       <c r="E127" s="55" t="s">
         <v>1183</v>
       </c>
-      <c r="F127" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="55" t="s">
+      <c r="F127" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H127" s="32" t="s">
@@ -14626,10 +14666,10 @@
       <c r="E128" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="55" t="s">
+      <c r="F128" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H128" s="32" t="s">
@@ -14689,10 +14729,10 @@
       <c r="E129" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F129" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" s="55" t="s">
+      <c r="F129" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H129" s="32" t="s">
@@ -14752,11 +14792,11 @@
       <c r="E130" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="55" t="s">
-        <v>26</v>
+      <c r="F130" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G130" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H130" s="32" t="s">
         <v>1081</v>
@@ -14815,10 +14855,10 @@
       <c r="E131" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="55" t="s">
+      <c r="F131" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H131" s="32" t="s">
@@ -14878,10 +14918,10 @@
       <c r="E132" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F132" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" s="55" t="s">
+      <c r="F132" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H132" s="32" t="s">
@@ -14941,10 +14981,10 @@
       <c r="E133" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F133" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="55" t="s">
+      <c r="F133" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H133" s="32" t="s">
@@ -15004,10 +15044,10 @@
       <c r="E134" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="55" t="s">
+      <c r="F134" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H134" s="32" t="s">
@@ -15067,10 +15107,10 @@
       <c r="E135" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F135" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="55" t="s">
+      <c r="F135" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H135" s="32" t="s">
@@ -15130,10 +15170,10 @@
       <c r="E136" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F136" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" s="55" t="s">
+      <c r="F136" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H136" s="32" t="s">
@@ -15193,10 +15233,10 @@
       <c r="E137" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F137" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" s="55" t="s">
+      <c r="F137" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H137" s="32" t="s">
@@ -15256,10 +15296,10 @@
       <c r="E138" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F138" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="55" t="s">
+      <c r="F138" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H138" s="32" t="s">
@@ -15319,10 +15359,10 @@
       <c r="E139" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" s="55" t="s">
+      <c r="F139" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H139" s="32" t="s">
@@ -15382,10 +15422,10 @@
       <c r="E140" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F140" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" s="55" t="s">
+      <c r="F140" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H140" s="32" t="s">
@@ -15445,10 +15485,10 @@
       <c r="E141" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" s="55" t="s">
+      <c r="F141" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H141" s="32" t="s">
@@ -15508,10 +15548,10 @@
       <c r="E142" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F142" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="55" t="s">
+      <c r="F142" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H142" s="32" t="s">
@@ -15571,10 +15611,10 @@
       <c r="E143" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F143" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" s="55" t="s">
+      <c r="F143" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H143" s="32" t="s">
@@ -15634,10 +15674,10 @@
       <c r="E144" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F144" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" s="55" t="s">
+      <c r="F144" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H144" s="32" t="s">
@@ -15697,10 +15737,10 @@
       <c r="E145" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" s="55" t="s">
+      <c r="F145" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H145" s="32" t="s">
@@ -15760,10 +15800,10 @@
       <c r="E146" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="55" t="s">
+      <c r="F146" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H146" s="32" t="s">
@@ -15823,10 +15863,10 @@
       <c r="E147" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F147" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" s="55" t="s">
+      <c r="F147" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H147" s="32" t="s">
@@ -15886,10 +15926,10 @@
       <c r="E148" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F148" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="55" t="s">
+      <c r="F148" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H148" s="32" t="s">
@@ -15949,10 +15989,10 @@
       <c r="E149" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F149" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="55" t="s">
+      <c r="F149" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H149" s="32" t="s">
@@ -16012,10 +16052,10 @@
       <c r="E150" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" s="55" t="s">
+      <c r="F150" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H150" s="32" t="s">
@@ -16075,10 +16115,10 @@
       <c r="E151" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F151" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" s="55" t="s">
+      <c r="F151" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H151" s="32" t="s">
@@ -16138,10 +16178,10 @@
       <c r="E152" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" s="55" t="s">
+      <c r="F152" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H152" s="32" t="s">
@@ -16201,10 +16241,10 @@
       <c r="E153" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F153" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" s="55" t="s">
+      <c r="F153" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H153" s="32" t="s">
@@ -16264,10 +16304,10 @@
       <c r="E154" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F154" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" s="55" t="s">
+      <c r="F154" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H154" s="32" t="s">
@@ -16327,10 +16367,10 @@
       <c r="E155" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F155" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" s="55" t="s">
+      <c r="F155" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H155" s="32" t="s">
@@ -16390,10 +16430,10 @@
       <c r="E156" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F156" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" s="55" t="s">
+      <c r="F156" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H156" s="32" t="s">
@@ -16453,10 +16493,10 @@
       <c r="E157" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F157" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="55" t="s">
+      <c r="F157" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H157" s="32" t="s">
@@ -16516,10 +16556,10 @@
       <c r="E158" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F158" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" s="55" t="s">
+      <c r="F158" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H158" s="32" t="s">
@@ -16579,10 +16619,10 @@
       <c r="E159" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F159" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" s="55" t="s">
+      <c r="F159" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H159" s="32" t="s">
@@ -16642,10 +16682,10 @@
       <c r="E160" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F160" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" s="55" t="s">
+      <c r="F160" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H160" s="32" t="s">
@@ -16705,10 +16745,10 @@
       <c r="E161" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F161" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" s="55" t="s">
+      <c r="F161" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H161" s="32" t="s">
@@ -16768,10 +16808,10 @@
       <c r="E162" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F162" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" s="55" t="s">
+      <c r="F162" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H162" s="32" t="s">
@@ -16831,10 +16871,10 @@
       <c r="E163" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F163" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G163" s="55" t="s">
+      <c r="F163" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H163" s="32" t="s">
@@ -16894,11 +16934,11 @@
       <c r="E164" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F164" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" s="55" t="s">
-        <v>26</v>
+      <c r="F164" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G164" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H164" s="32" t="s">
         <v>1081</v>
@@ -16957,10 +16997,10 @@
       <c r="E165" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F165" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" s="55" t="s">
+      <c r="F165" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H165" s="32" t="s">
@@ -17020,10 +17060,10 @@
       <c r="E166" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F166" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" s="55" t="s">
+      <c r="F166" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H166" s="32" t="s">
@@ -17083,10 +17123,10 @@
       <c r="E167" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F167" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" s="55" t="s">
+      <c r="F167" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H167" s="32" t="s">
@@ -17146,10 +17186,10 @@
       <c r="E168" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F168" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" s="55" t="s">
+      <c r="F168" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H168" s="32" t="s">
@@ -17209,11 +17249,11 @@
       <c r="E169" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F169" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="55" t="s">
-        <v>26</v>
+      <c r="F169" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G169" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H169" s="32" t="s">
         <v>1081</v>
@@ -17272,10 +17312,10 @@
       <c r="E170" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F170" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" s="55" t="s">
+      <c r="F170" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H170" s="32" t="s">
@@ -17335,10 +17375,10 @@
       <c r="E171" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F171" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" s="55" t="s">
+      <c r="F171" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H171" s="32" t="s">
@@ -17398,10 +17438,10 @@
       <c r="E172" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F172" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" s="55" t="s">
+      <c r="F172" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H172" s="32" t="s">
@@ -17461,10 +17501,10 @@
       <c r="E173" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F173" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="55" t="s">
+      <c r="F173" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H173" s="32" t="s">
@@ -17524,10 +17564,10 @@
       <c r="E174" s="55" t="s">
         <v>1183</v>
       </c>
-      <c r="F174" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" s="55" t="s">
+      <c r="F174" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H174" s="32" t="s">
@@ -17587,10 +17627,10 @@
       <c r="E175" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F175" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" s="55" t="s">
+      <c r="F175" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H175" s="32" t="s">
@@ -17650,10 +17690,10 @@
       <c r="E176" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F176" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" s="55" t="s">
+      <c r="F176" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H176" s="32" t="s">
@@ -17713,10 +17753,10 @@
       <c r="E177" s="55" t="s">
         <v>1186</v>
       </c>
-      <c r="F177" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" s="55" t="s">
+      <c r="F177" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H177" s="32" t="s">
@@ -17776,10 +17816,10 @@
       <c r="E178" s="55" t="s">
         <v>1186</v>
       </c>
-      <c r="F178" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" s="55" t="s">
+      <c r="F178" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H178" s="32" t="s">
@@ -17839,10 +17879,10 @@
       <c r="E179" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F179" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" s="55" t="s">
+      <c r="F179" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G179" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H179" s="32" t="s">
@@ -17902,10 +17942,10 @@
       <c r="E180" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F180" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" s="55" t="s">
+      <c r="F180" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G180" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H180" s="32" t="s">
@@ -17965,10 +18005,10 @@
       <c r="E181" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F181" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" s="55" t="s">
+      <c r="F181" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H181" s="32" t="s">
@@ -18028,10 +18068,10 @@
       <c r="E182" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F182" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" s="55" t="s">
+      <c r="F182" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G182" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H182" s="32" t="s">
@@ -18091,10 +18131,10 @@
       <c r="E183" s="55" t="s">
         <v>1186</v>
       </c>
-      <c r="F183" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" s="55" t="s">
+      <c r="F183" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H183" s="32" t="s">
@@ -18154,11 +18194,11 @@
       <c r="E184" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F184" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" s="55" t="s">
-        <v>26</v>
+      <c r="F184" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G184" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H184" s="32" t="s">
         <v>1081</v>
@@ -18217,11 +18257,11 @@
       <c r="E185" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F185" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" s="55" t="s">
-        <v>26</v>
+      <c r="F185" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G185" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H185" s="32" t="s">
         <v>1081</v>
@@ -18280,10 +18320,10 @@
       <c r="E186" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F186" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" s="55" t="s">
+      <c r="F186" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G186" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H186" s="32" t="s">
@@ -18343,10 +18383,10 @@
       <c r="E187" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F187" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" s="55" t="s">
+      <c r="F187" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H187" s="32" t="s">
@@ -18406,10 +18446,10 @@
       <c r="E188" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" s="55" t="s">
+      <c r="F188" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G188" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H188" s="32" t="s">
@@ -18469,10 +18509,10 @@
       <c r="E189" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F189" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" s="55" t="s">
+      <c r="F189" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H189" s="32" t="s">
@@ -18532,10 +18572,10 @@
       <c r="E190" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F190" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" s="55" t="s">
+      <c r="F190" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H190" s="32" t="s">
@@ -18595,10 +18635,10 @@
       <c r="E191" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F191" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" s="55" t="s">
+      <c r="F191" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H191" s="32" t="s">
@@ -18658,10 +18698,10 @@
       <c r="E192" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F192" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" s="55" t="s">
+      <c r="F192" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H192" s="32" t="s">
@@ -18721,10 +18761,10 @@
       <c r="E193" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F193" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" s="55" t="s">
+      <c r="F193" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H193" s="32" t="s">
@@ -18784,10 +18824,10 @@
       <c r="E194" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F194" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G194" s="55" t="s">
+      <c r="F194" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H194" s="32" t="s">
@@ -18847,10 +18887,10 @@
       <c r="E195" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F195" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195" s="55" t="s">
+      <c r="F195" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H195" s="32" t="s">
@@ -18910,10 +18950,10 @@
       <c r="E196" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F196" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G196" s="55" t="s">
+      <c r="F196" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H196" s="32" t="s">
@@ -18973,10 +19013,10 @@
       <c r="E197" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F197" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" s="55" t="s">
+      <c r="F197" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H197" s="32" t="s">
@@ -19036,10 +19076,10 @@
       <c r="E198" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F198" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198" s="55" t="s">
+      <c r="F198" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H198" s="32" t="s">
@@ -19099,10 +19139,10 @@
       <c r="E199" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F199" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" s="55" t="s">
+      <c r="F199" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H199" s="32" t="s">
@@ -19162,10 +19202,10 @@
       <c r="E200" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F200" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" s="55" t="s">
+      <c r="F200" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H200" s="32" t="s">
@@ -19225,10 +19265,10 @@
       <c r="E201" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F201" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" s="55" t="s">
+      <c r="F201" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H201" s="32" t="s">
@@ -19288,10 +19328,10 @@
       <c r="E202" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F202" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" s="55" t="s">
+      <c r="F202" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H202" s="32" t="s">
@@ -19351,10 +19391,10 @@
       <c r="E203" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F203" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" s="55" t="s">
+      <c r="F203" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H203" s="32" t="s">
@@ -19414,10 +19454,10 @@
       <c r="E204" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F204" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G204" s="55" t="s">
+      <c r="F204" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G204" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H204" s="32" t="s">
@@ -19477,10 +19517,10 @@
       <c r="E205" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F205" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" s="55" t="s">
+      <c r="F205" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H205" s="32" t="s">
@@ -19540,10 +19580,10 @@
       <c r="E206" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F206" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G206" s="55" t="s">
+      <c r="F206" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H206" s="32" t="s">
@@ -19603,10 +19643,10 @@
       <c r="E207" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" s="55" t="s">
+      <c r="F207" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H207" s="32" t="s">
@@ -19666,10 +19706,10 @@
       <c r="E208" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F208" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" s="55" t="s">
+      <c r="F208" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G208" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H208" s="32" t="s">
@@ -19729,10 +19769,10 @@
       <c r="E209" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F209" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" s="55" t="s">
+      <c r="F209" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H209" s="32" t="s">
@@ -19792,10 +19832,10 @@
       <c r="E210" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" s="55" t="s">
+      <c r="F210" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H210" s="32" t="s">
@@ -19855,10 +19895,10 @@
       <c r="E211" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F211" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" s="55" t="s">
+      <c r="F211" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H211" s="32" t="s">
@@ -19910,7 +19950,7 @@
       </c>
       <c r="C212" s="34" t="str">
         <f>IF(VALUE(O212)=1,"SUS.Equipamento",IF(VALUE(Q212)=1,"SUS.Dispositivo","SUS.Mobília"))</f>
-        <v>SUS.Dispositivo</v>
+        <v>SUS.Equipamento</v>
       </c>
       <c r="D212" s="54" t="s">
         <v>26</v>
@@ -19918,11 +19958,11 @@
       <c r="E212" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F212" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" s="55" t="s">
-        <v>26</v>
+      <c r="F212" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G212" s="53" t="s">
+        <v>1205</v>
       </c>
       <c r="H212" s="32" t="s">
         <v>1081</v>
@@ -19948,14 +19988,14 @@
         <v>1082</v>
       </c>
       <c r="O212" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212" s="32" t="s">
         <v>1083</v>
       </c>
       <c r="Q212" s="8">
         <f>IF(AND(O212=0, S212=0), 1, 0 )</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R212" s="32" t="s">
         <v>1084</v>
@@ -19981,10 +20021,10 @@
       <c r="E213" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F213" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G213" s="55" t="s">
+      <c r="F213" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H213" s="32" t="s">
@@ -20044,10 +20084,10 @@
       <c r="E214" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F214" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" s="55" t="s">
+      <c r="F214" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G214" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H214" s="32" t="s">
@@ -20107,10 +20147,10 @@
       <c r="E215" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F215" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G215" s="55" t="s">
+      <c r="F215" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H215" s="32" t="s">
@@ -20170,10 +20210,10 @@
       <c r="E216" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F216" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" s="55" t="s">
+      <c r="F216" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G216" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H216" s="32" t="s">
@@ -20233,10 +20273,10 @@
       <c r="E217" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F217" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G217" s="55" t="s">
+      <c r="F217" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G217" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H217" s="32" t="s">
@@ -20296,10 +20336,10 @@
       <c r="E218" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F218" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" s="55" t="s">
+      <c r="F218" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G218" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H218" s="32" t="s">
@@ -20359,10 +20399,10 @@
       <c r="E219" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F219" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G219" s="55" t="s">
+      <c r="F219" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H219" s="32" t="s">
@@ -20422,10 +20462,10 @@
       <c r="E220" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F220" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" s="55" t="s">
+      <c r="F220" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G220" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H220" s="32" t="s">
@@ -20485,10 +20525,10 @@
       <c r="E221" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F221" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G221" s="55" t="s">
+      <c r="F221" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G221" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H221" s="32" t="s">
@@ -20548,10 +20588,10 @@
       <c r="E222" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F222" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" s="55" t="s">
+      <c r="F222" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H222" s="32" t="s">
@@ -20611,10 +20651,10 @@
       <c r="E223" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F223" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G223" s="55" t="s">
+      <c r="F223" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H223" s="32" t="s">
@@ -20674,10 +20714,10 @@
       <c r="E224" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" s="55" t="s">
+      <c r="F224" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H224" s="32" t="s">
@@ -20737,10 +20777,10 @@
       <c r="E225" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F225" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G225" s="55" t="s">
+      <c r="F225" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H225" s="32" t="s">
@@ -20800,10 +20840,10 @@
       <c r="E226" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F226" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G226" s="55" t="s">
+      <c r="F226" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H226" s="32" t="s">
@@ -20863,10 +20903,10 @@
       <c r="E227" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F227" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G227" s="55" t="s">
+      <c r="F227" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H227" s="32" t="s">
@@ -20926,10 +20966,10 @@
       <c r="E228" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F228" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G228" s="55" t="s">
+      <c r="F228" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H228" s="32" t="s">
@@ -20989,10 +21029,10 @@
       <c r="E229" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F229" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" s="55" t="s">
+      <c r="F229" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H229" s="32" t="s">
@@ -21052,10 +21092,10 @@
       <c r="E230" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F230" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G230" s="55" t="s">
+      <c r="F230" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H230" s="32" t="s">
@@ -21115,10 +21155,10 @@
       <c r="E231" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F231" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" s="55" t="s">
+      <c r="F231" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H231" s="32" t="s">
@@ -21178,10 +21218,10 @@
       <c r="E232" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F232" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G232" s="55" t="s">
+      <c r="F232" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H232" s="32" t="s">
@@ -21241,10 +21281,10 @@
       <c r="E233" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F233" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G233" s="55" t="s">
+      <c r="F233" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H233" s="32" t="s">
@@ -21304,10 +21344,10 @@
       <c r="E234" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F234" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G234" s="55" t="s">
+      <c r="F234" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H234" s="32" t="s">
@@ -21367,10 +21407,10 @@
       <c r="E235" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F235" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" s="55" t="s">
+      <c r="F235" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G235" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H235" s="32" t="s">
@@ -21430,10 +21470,10 @@
       <c r="E236" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F236" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" s="55" t="s">
+      <c r="F236" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G236" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H236" s="32" t="s">
@@ -21493,11 +21533,11 @@
       <c r="E237" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F237" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" s="55" t="s">
-        <v>26</v>
+      <c r="F237" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G237" s="53" t="s">
+        <v>1198</v>
       </c>
       <c r="H237" s="32" t="s">
         <v>1081</v>
@@ -21556,10 +21596,10 @@
       <c r="E238" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F238" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G238" s="55" t="s">
+      <c r="F238" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H238" s="32" t="s">
@@ -21619,10 +21659,10 @@
       <c r="E239" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F239" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" s="55" t="s">
+      <c r="F239" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H239" s="32" t="s">
@@ -21682,10 +21722,10 @@
       <c r="E240" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F240" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G240" s="55" t="s">
+      <c r="F240" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G240" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H240" s="32" t="s">
@@ -21745,10 +21785,10 @@
       <c r="E241" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F241" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G241" s="55" t="s">
+      <c r="F241" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G241" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H241" s="32" t="s">
@@ -21808,10 +21848,10 @@
       <c r="E242" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F242" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G242" s="55" t="s">
+      <c r="F242" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H242" s="32" t="s">
@@ -21871,10 +21911,10 @@
       <c r="E243" s="55" t="s">
         <v>1187</v>
       </c>
-      <c r="F243" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G243" s="55" t="s">
+      <c r="F243" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H243" s="32" t="s">
@@ -21934,10 +21974,10 @@
       <c r="E244" s="55" t="s">
         <v>1187</v>
       </c>
-      <c r="F244" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G244" s="55" t="s">
+      <c r="F244" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H244" s="32" t="s">
@@ -21997,10 +22037,10 @@
       <c r="E245" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F245" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G245" s="55" t="s">
+      <c r="F245" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G245" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H245" s="32" t="s">
@@ -22060,10 +22100,10 @@
       <c r="E246" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="F246" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G246" s="55" t="s">
+      <c r="F246" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G246" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H246" s="32" t="s">
@@ -22123,10 +22163,10 @@
       <c r="E247" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F247" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G247" s="55" t="s">
+      <c r="F247" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H247" s="32" t="s">
@@ -22186,10 +22226,10 @@
       <c r="E248" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F248" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G248" s="55" t="s">
+      <c r="F248" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H248" s="32" t="s">
@@ -22249,10 +22289,10 @@
       <c r="E249" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F249" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G249" s="55" t="s">
+      <c r="F249" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H249" s="32" t="s">
@@ -22312,10 +22352,10 @@
       <c r="E250" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="F250" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G250" s="55" t="s">
+      <c r="F250" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H250" s="32" t="s">
@@ -22375,10 +22415,10 @@
       <c r="E251" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F251" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G251" s="55" t="s">
+      <c r="F251" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H251" s="32" t="s">
@@ -22438,10 +22478,10 @@
       <c r="E252" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F252" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G252" s="55" t="s">
+      <c r="F252" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H252" s="32" t="s">
@@ -22501,10 +22541,10 @@
       <c r="E253" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F253" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G253" s="55" t="s">
+      <c r="F253" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G253" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H253" s="32" t="s">
@@ -22564,10 +22604,10 @@
       <c r="E254" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F254" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G254" s="55" t="s">
+      <c r="F254" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G254" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H254" s="32" t="s">
@@ -22627,10 +22667,10 @@
       <c r="E255" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F255" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G255" s="55" t="s">
+      <c r="F255" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H255" s="32" t="s">
@@ -22690,10 +22730,10 @@
       <c r="E256" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F256" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G256" s="55" t="s">
+      <c r="F256" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G256" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H256" s="32" t="s">
@@ -22753,10 +22793,10 @@
       <c r="E257" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F257" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G257" s="55" t="s">
+      <c r="F257" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G257" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H257" s="32" t="s">
@@ -22816,11 +22856,11 @@
       <c r="E258" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F258" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G258" s="55" t="s">
-        <v>26</v>
+      <c r="F258" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G258" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H258" s="32" t="s">
         <v>1081</v>
@@ -22879,10 +22919,10 @@
       <c r="E259" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F259" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G259" s="55" t="s">
+      <c r="F259" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G259" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H259" s="32" t="s">
@@ -22942,10 +22982,10 @@
       <c r="E260" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F260" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" s="55" t="s">
+      <c r="F260" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G260" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H260" s="32" t="s">
@@ -23005,10 +23045,10 @@
       <c r="E261" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F261" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G261" s="55" t="s">
+      <c r="F261" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H261" s="32" t="s">
@@ -23068,10 +23108,10 @@
       <c r="E262" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F262" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G262" s="55" t="s">
+      <c r="F262" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G262" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H262" s="32" t="s">
@@ -23131,10 +23171,10 @@
       <c r="E263" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F263" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G263" s="55" t="s">
+      <c r="F263" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G263" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H263" s="32" t="s">
@@ -23194,10 +23234,10 @@
       <c r="E264" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F264" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G264" s="55" t="s">
+      <c r="F264" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G264" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H264" s="32" t="s">
@@ -23257,10 +23297,10 @@
       <c r="E265" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F265" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G265" s="55" t="s">
+      <c r="F265" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G265" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H265" s="32" t="s">
@@ -23320,10 +23360,10 @@
       <c r="E266" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F266" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G266" s="55" t="s">
+      <c r="F266" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G266" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H266" s="32" t="s">
@@ -23383,10 +23423,10 @@
       <c r="E267" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F267" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G267" s="55" t="s">
+      <c r="F267" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G267" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H267" s="32" t="s">
@@ -23446,10 +23486,10 @@
       <c r="E268" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F268" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G268" s="55" t="s">
+      <c r="F268" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G268" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H268" s="32" t="s">
@@ -23509,10 +23549,10 @@
       <c r="E269" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F269" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G269" s="55" t="s">
+      <c r="F269" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H269" s="32" t="s">
@@ -23572,10 +23612,10 @@
       <c r="E270" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F270" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G270" s="55" t="s">
+      <c r="F270" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G270" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H270" s="32" t="s">
@@ -23635,10 +23675,10 @@
       <c r="E271" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F271" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G271" s="55" t="s">
+      <c r="F271" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G271" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H271" s="32" t="s">
@@ -23698,10 +23738,10 @@
       <c r="E272" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F272" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G272" s="55" t="s">
+      <c r="F272" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G272" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H272" s="32" t="s">
@@ -23761,10 +23801,10 @@
       <c r="E273" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F273" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G273" s="55" t="s">
+      <c r="F273" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G273" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H273" s="32" t="s">
@@ -23824,10 +23864,10 @@
       <c r="E274" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F274" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G274" s="55" t="s">
+      <c r="F274" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G274" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H274" s="32" t="s">
@@ -23887,10 +23927,10 @@
       <c r="E275" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F275" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G275" s="55" t="s">
+      <c r="F275" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G275" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H275" s="32" t="s">
@@ -23950,11 +23990,11 @@
       <c r="E276" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F276" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G276" s="55" t="s">
-        <v>26</v>
+      <c r="F276" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G276" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H276" s="32" t="s">
         <v>1081</v>
@@ -24013,11 +24053,11 @@
       <c r="E277" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F277" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G277" s="55" t="s">
-        <v>26</v>
+      <c r="F277" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G277" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H277" s="32" t="s">
         <v>1081</v>
@@ -24076,11 +24116,11 @@
       <c r="E278" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F278" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G278" s="55" t="s">
-        <v>26</v>
+      <c r="F278" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G278" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H278" s="32" t="s">
         <v>1081</v>
@@ -24139,10 +24179,10 @@
       <c r="E279" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F279" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G279" s="55" t="s">
+      <c r="F279" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G279" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H279" s="32" t="s">
@@ -24202,10 +24242,10 @@
       <c r="E280" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F280" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G280" s="55" t="s">
+      <c r="F280" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G280" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H280" s="32" t="s">
@@ -24265,10 +24305,10 @@
       <c r="E281" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F281" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G281" s="55" t="s">
+      <c r="F281" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G281" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H281" s="32" t="s">
@@ -24328,10 +24368,10 @@
       <c r="E282" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F282" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G282" s="55" t="s">
+      <c r="F282" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G282" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H282" s="32" t="s">
@@ -24391,10 +24431,10 @@
       <c r="E283" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F283" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G283" s="55" t="s">
+      <c r="F283" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G283" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H283" s="32" t="s">
@@ -24454,10 +24494,10 @@
       <c r="E284" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F284" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G284" s="55" t="s">
+      <c r="F284" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G284" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H284" s="32" t="s">
@@ -24517,10 +24557,10 @@
       <c r="E285" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F285" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G285" s="55" t="s">
+      <c r="F285" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G285" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H285" s="32" t="s">
@@ -24580,10 +24620,10 @@
       <c r="E286" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F286" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G286" s="55" t="s">
+      <c r="F286" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G286" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H286" s="32" t="s">
@@ -24643,10 +24683,10 @@
       <c r="E287" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F287" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G287" s="55" t="s">
+      <c r="F287" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G287" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H287" s="32" t="s">
@@ -24706,10 +24746,10 @@
       <c r="E288" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F288" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G288" s="55" t="s">
+      <c r="F288" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G288" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H288" s="32" t="s">
@@ -24769,11 +24809,11 @@
       <c r="E289" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F289" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G289" s="55" t="s">
-        <v>26</v>
+      <c r="F289" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G289" s="53" t="s">
+        <v>1201</v>
       </c>
       <c r="H289" s="32" t="s">
         <v>1081</v>
@@ -24832,10 +24872,10 @@
       <c r="E290" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F290" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" s="55" t="s">
+      <c r="F290" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G290" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H290" s="32" t="s">
@@ -24895,10 +24935,10 @@
       <c r="E291" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F291" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G291" s="55" t="s">
+      <c r="F291" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G291" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H291" s="32" t="s">
@@ -24958,10 +24998,10 @@
       <c r="E292" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F292" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="55" t="s">
+      <c r="F292" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G292" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H292" s="32" t="s">
@@ -25021,10 +25061,10 @@
       <c r="E293" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F293" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G293" s="55" t="s">
+      <c r="F293" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G293" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H293" s="32" t="s">
@@ -25084,10 +25124,10 @@
       <c r="E294" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F294" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G294" s="55" t="s">
+      <c r="F294" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G294" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H294" s="32" t="s">
@@ -25147,10 +25187,10 @@
       <c r="E295" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F295" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G295" s="55" t="s">
+      <c r="F295" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G295" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H295" s="32" t="s">
@@ -25210,10 +25250,10 @@
       <c r="E296" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F296" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G296" s="55" t="s">
+      <c r="F296" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G296" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H296" s="32" t="s">
@@ -25273,10 +25313,10 @@
       <c r="E297" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F297" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G297" s="55" t="s">
+      <c r="F297" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G297" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H297" s="32" t="s">
@@ -25336,10 +25376,10 @@
       <c r="E298" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="F298" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G298" s="55" t="s">
+      <c r="F298" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G298" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H298" s="32" t="s">
@@ -25399,10 +25439,10 @@
       <c r="E299" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F299" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G299" s="55" t="s">
+      <c r="F299" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G299" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H299" s="32" t="s">
@@ -25462,10 +25502,10 @@
       <c r="E300" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F300" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G300" s="55" t="s">
+      <c r="F300" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G300" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H300" s="32" t="s">
@@ -25525,10 +25565,10 @@
       <c r="E301" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F301" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G301" s="55" t="s">
+      <c r="F301" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G301" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H301" s="32" t="s">
@@ -25588,10 +25628,10 @@
       <c r="E302" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F302" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G302" s="55" t="s">
+      <c r="F302" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G302" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H302" s="32" t="s">
@@ -25651,10 +25691,10 @@
       <c r="E303" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F303" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G303" s="55" t="s">
+      <c r="F303" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G303" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H303" s="32" t="s">
@@ -25714,10 +25754,10 @@
       <c r="E304" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F304" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G304" s="55" t="s">
+      <c r="F304" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G304" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H304" s="32" t="s">
@@ -25777,10 +25817,10 @@
       <c r="E305" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F305" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G305" s="55" t="s">
+      <c r="F305" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G305" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H305" s="32" t="s">
@@ -25840,11 +25880,11 @@
       <c r="E306" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F306" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G306" s="55" t="s">
-        <v>26</v>
+      <c r="F306" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G306" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H306" s="32" t="s">
         <v>1081</v>
@@ -25903,11 +25943,11 @@
       <c r="E307" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F307" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G307" s="55" t="s">
-        <v>26</v>
+      <c r="F307" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G307" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H307" s="32" t="s">
         <v>1081</v>
@@ -25966,11 +26006,11 @@
       <c r="E308" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F308" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G308" s="55" t="s">
-        <v>26</v>
+      <c r="F308" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G308" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H308" s="32" t="s">
         <v>1081</v>
@@ -26029,11 +26069,11 @@
       <c r="E309" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F309" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G309" s="55" t="s">
-        <v>26</v>
+      <c r="F309" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G309" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H309" s="32" t="s">
         <v>1081</v>
@@ -26092,11 +26132,11 @@
       <c r="E310" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F310" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G310" s="55" t="s">
-        <v>26</v>
+      <c r="F310" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G310" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H310" s="32" t="s">
         <v>1081</v>
@@ -26155,10 +26195,10 @@
       <c r="E311" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F311" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G311" s="55" t="s">
+      <c r="F311" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H311" s="32" t="s">
@@ -26218,10 +26258,10 @@
       <c r="E312" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F312" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G312" s="55" t="s">
+      <c r="F312" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G312" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H312" s="32" t="s">
@@ -26281,10 +26321,10 @@
       <c r="E313" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F313" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G313" s="55" t="s">
+      <c r="F313" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H313" s="32" t="s">
@@ -26344,10 +26384,10 @@
       <c r="E314" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F314" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G314" s="55" t="s">
+      <c r="F314" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G314" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H314" s="32" t="s">
@@ -26407,10 +26447,10 @@
       <c r="E315" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F315" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G315" s="55" t="s">
+      <c r="F315" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G315" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H315" s="32" t="s">
@@ -26470,10 +26510,10 @@
       <c r="E316" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F316" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" s="55" t="s">
+      <c r="F316" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G316" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H316" s="32" t="s">
@@ -26533,10 +26573,10 @@
       <c r="E317" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F317" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G317" s="55" t="s">
+      <c r="F317" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G317" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H317" s="32" t="s">
@@ -26596,10 +26636,10 @@
       <c r="E318" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F318" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G318" s="55" t="s">
+      <c r="F318" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G318" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H318" s="32" t="s">
@@ -26659,10 +26699,10 @@
       <c r="E319" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F319" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G319" s="55" t="s">
+      <c r="F319" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H319" s="32" t="s">
@@ -26722,10 +26762,10 @@
       <c r="E320" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F320" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G320" s="55" t="s">
+      <c r="F320" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G320" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H320" s="32" t="s">
@@ -26785,10 +26825,10 @@
       <c r="E321" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F321" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G321" s="55" t="s">
+      <c r="F321" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G321" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H321" s="32" t="s">
@@ -26848,10 +26888,10 @@
       <c r="E322" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F322" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G322" s="55" t="s">
+      <c r="F322" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G322" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H322" s="32" t="s">
@@ -26911,10 +26951,10 @@
       <c r="E323" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F323" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G323" s="55" t="s">
+      <c r="F323" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G323" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H323" s="32" t="s">
@@ -26974,10 +27014,10 @@
       <c r="E324" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F324" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G324" s="55" t="s">
+      <c r="F324" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G324" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H324" s="32" t="s">
@@ -27037,10 +27077,10 @@
       <c r="E325" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F325" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G325" s="55" t="s">
+      <c r="F325" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H325" s="32" t="s">
@@ -27100,10 +27140,10 @@
       <c r="E326" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F326" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G326" s="55" t="s">
+      <c r="F326" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G326" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H326" s="32" t="s">
@@ -27163,10 +27203,10 @@
       <c r="E327" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F327" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G327" s="55" t="s">
+      <c r="F327" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G327" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H327" s="32" t="s">
@@ -27226,10 +27266,10 @@
       <c r="E328" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F328" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G328" s="55" t="s">
+      <c r="F328" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H328" s="32" t="s">
@@ -27289,10 +27329,10 @@
       <c r="E329" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F329" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G329" s="55" t="s">
+      <c r="F329" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G329" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H329" s="32" t="s">
@@ -27352,10 +27392,10 @@
       <c r="E330" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F330" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G330" s="55" t="s">
+      <c r="F330" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H330" s="32" t="s">
@@ -27415,10 +27455,10 @@
       <c r="E331" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F331" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G331" s="55" t="s">
+      <c r="F331" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H331" s="32" t="s">
@@ -27478,10 +27518,10 @@
       <c r="E332" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F332" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G332" s="55" t="s">
+      <c r="F332" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H332" s="32" t="s">
@@ -27541,10 +27581,10 @@
       <c r="E333" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F333" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G333" s="55" t="s">
+      <c r="F333" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H333" s="32" t="s">
@@ -27604,10 +27644,10 @@
       <c r="E334" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F334" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G334" s="55" t="s">
+      <c r="F334" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H334" s="32" t="s">
@@ -27667,10 +27707,10 @@
       <c r="E335" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F335" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G335" s="55" t="s">
+      <c r="F335" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H335" s="32" t="s">
@@ -27730,11 +27770,11 @@
       <c r="E336" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F336" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G336" s="55" t="s">
-        <v>26</v>
+      <c r="F336" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G336" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H336" s="32" t="s">
         <v>1081</v>
@@ -27793,10 +27833,10 @@
       <c r="E337" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F337" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G337" s="55" t="s">
+      <c r="F337" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G337" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H337" s="32" t="s">
@@ -27856,10 +27896,10 @@
       <c r="E338" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F338" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G338" s="55" t="s">
+      <c r="F338" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H338" s="32" t="s">
@@ -27919,10 +27959,10 @@
       <c r="E339" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F339" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G339" s="55" t="s">
+      <c r="F339" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G339" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H339" s="32" t="s">
@@ -27982,10 +28022,10 @@
       <c r="E340" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F340" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G340" s="55" t="s">
+      <c r="F340" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G340" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H340" s="32" t="s">
@@ -28045,10 +28085,10 @@
       <c r="E341" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F341" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G341" s="55" t="s">
+      <c r="F341" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H341" s="32" t="s">
@@ -28108,10 +28148,10 @@
       <c r="E342" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F342" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G342" s="55" t="s">
+      <c r="F342" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G342" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H342" s="32" t="s">
@@ -28171,10 +28211,10 @@
       <c r="E343" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F343" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G343" s="55" t="s">
+      <c r="F343" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G343" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H343" s="32" t="s">
@@ -28234,10 +28274,10 @@
       <c r="E344" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F344" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G344" s="55" t="s">
+      <c r="F344" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G344" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H344" s="32" t="s">
@@ -28297,10 +28337,10 @@
       <c r="E345" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F345" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G345" s="55" t="s">
+      <c r="F345" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G345" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H345" s="32" t="s">
@@ -28360,10 +28400,10 @@
       <c r="E346" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F346" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G346" s="55" t="s">
+      <c r="F346" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G346" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H346" s="32" t="s">
@@ -28423,10 +28463,10 @@
       <c r="E347" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F347" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G347" s="55" t="s">
+      <c r="F347" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G347" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H347" s="32" t="s">
@@ -28486,10 +28526,10 @@
       <c r="E348" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F348" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G348" s="55" t="s">
+      <c r="F348" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G348" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H348" s="32" t="s">
@@ -28549,10 +28589,10 @@
       <c r="E349" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F349" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G349" s="55" t="s">
+      <c r="F349" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G349" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H349" s="32" t="s">
@@ -28612,10 +28652,10 @@
       <c r="E350" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F350" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G350" s="55" t="s">
+      <c r="F350" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G350" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H350" s="32" t="s">
@@ -28675,10 +28715,10 @@
       <c r="E351" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F351" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G351" s="55" t="s">
+      <c r="F351" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H351" s="32" t="s">
@@ -28738,10 +28778,10 @@
       <c r="E352" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F352" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G352" s="55" t="s">
+      <c r="F352" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G352" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H352" s="32" t="s">
@@ -28801,10 +28841,10 @@
       <c r="E353" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F353" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G353" s="55" t="s">
+      <c r="F353" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G353" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H353" s="32" t="s">
@@ -28864,10 +28904,10 @@
       <c r="E354" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F354" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G354" s="55" t="s">
+      <c r="F354" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G354" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H354" s="32" t="s">
@@ -28927,10 +28967,10 @@
       <c r="E355" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F355" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G355" s="55" t="s">
+      <c r="F355" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G355" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H355" s="32" t="s">
@@ -28990,10 +29030,10 @@
       <c r="E356" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F356" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G356" s="55" t="s">
+      <c r="F356" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G356" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H356" s="32" t="s">
@@ -29053,10 +29093,10 @@
       <c r="E357" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F357" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G357" s="55" t="s">
+      <c r="F357" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G357" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H357" s="32" t="s">
@@ -29116,10 +29156,10 @@
       <c r="E358" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F358" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G358" s="55" t="s">
+      <c r="F358" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G358" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H358" s="32" t="s">
@@ -29179,10 +29219,10 @@
       <c r="E359" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F359" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G359" s="55" t="s">
+      <c r="F359" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G359" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H359" s="32" t="s">
@@ -29242,10 +29282,10 @@
       <c r="E360" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F360" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G360" s="55" t="s">
+      <c r="F360" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G360" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H360" s="32" t="s">
@@ -29305,10 +29345,10 @@
       <c r="E361" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F361" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G361" s="55" t="s">
+      <c r="F361" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G361" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H361" s="32" t="s">
@@ -29368,10 +29408,10 @@
       <c r="E362" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F362" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G362" s="55" t="s">
+      <c r="F362" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G362" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H362" s="32" t="s">
@@ -29431,10 +29471,10 @@
       <c r="E363" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F363" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G363" s="55" t="s">
+      <c r="F363" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G363" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H363" s="32" t="s">
@@ -29494,10 +29534,10 @@
       <c r="E364" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F364" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G364" s="55" t="s">
+      <c r="F364" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G364" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H364" s="32" t="s">
@@ -29557,10 +29597,10 @@
       <c r="E365" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F365" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G365" s="55" t="s">
+      <c r="F365" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G365" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H365" s="32" t="s">
@@ -29620,10 +29660,10 @@
       <c r="E366" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F366" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G366" s="55" t="s">
+      <c r="F366" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G366" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H366" s="32" t="s">
@@ -29683,10 +29723,10 @@
       <c r="E367" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F367" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G367" s="55" t="s">
+      <c r="F367" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G367" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H367" s="32" t="s">
@@ -29746,10 +29786,10 @@
       <c r="E368" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F368" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G368" s="55" t="s">
+      <c r="F368" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G368" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H368" s="32" t="s">
@@ -29809,10 +29849,10 @@
       <c r="E369" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F369" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G369" s="55" t="s">
+      <c r="F369" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G369" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H369" s="32" t="s">
@@ -29872,10 +29912,10 @@
       <c r="E370" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F370" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G370" s="55" t="s">
+      <c r="F370" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G370" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H370" s="32" t="s">
@@ -29935,10 +29975,10 @@
       <c r="E371" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F371" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G371" s="55" t="s">
+      <c r="F371" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G371" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H371" s="32" t="s">
@@ -29998,10 +30038,10 @@
       <c r="E372" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F372" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G372" s="55" t="s">
+      <c r="F372" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G372" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H372" s="32" t="s">
@@ -30061,10 +30101,10 @@
       <c r="E373" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F373" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G373" s="55" t="s">
+      <c r="F373" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G373" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H373" s="32" t="s">
@@ -30124,11 +30164,11 @@
       <c r="E374" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F374" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G374" s="55" t="s">
-        <v>26</v>
+      <c r="F374" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G374" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H374" s="32" t="s">
         <v>1081</v>
@@ -30187,11 +30227,11 @@
       <c r="E375" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F375" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G375" s="55" t="s">
-        <v>26</v>
+      <c r="F375" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G375" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H375" s="32" t="s">
         <v>1081</v>
@@ -30250,10 +30290,10 @@
       <c r="E376" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F376" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G376" s="55" t="s">
+      <c r="F376" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G376" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H376" s="32" t="s">
@@ -30313,10 +30353,10 @@
       <c r="E377" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F377" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G377" s="55" t="s">
+      <c r="F377" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H377" s="32" t="s">
@@ -30376,10 +30416,10 @@
       <c r="E378" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F378" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G378" s="55" t="s">
+      <c r="F378" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G378" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H378" s="32" t="s">
@@ -30439,10 +30479,10 @@
       <c r="E379" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F379" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G379" s="55" t="s">
+      <c r="F379" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G379" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H379" s="32" t="s">
@@ -30502,10 +30542,10 @@
       <c r="E380" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F380" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G380" s="55" t="s">
+      <c r="F380" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G380" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H380" s="32" t="s">
@@ -30565,10 +30605,10 @@
       <c r="E381" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F381" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G381" s="55" t="s">
+      <c r="F381" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G381" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H381" s="32" t="s">
@@ -30628,10 +30668,10 @@
       <c r="E382" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F382" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G382" s="55" t="s">
+      <c r="F382" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G382" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H382" s="32" t="s">
@@ -30691,10 +30731,10 @@
       <c r="E383" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F383" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G383" s="55" t="s">
+      <c r="F383" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G383" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H383" s="32" t="s">
@@ -30754,10 +30794,10 @@
       <c r="E384" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F384" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G384" s="55" t="s">
+      <c r="F384" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G384" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H384" s="32" t="s">
@@ -30817,10 +30857,10 @@
       <c r="E385" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F385" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G385" s="55" t="s">
+      <c r="F385" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G385" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H385" s="32" t="s">
@@ -30880,10 +30920,10 @@
       <c r="E386" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F386" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G386" s="55" t="s">
+      <c r="F386" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G386" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H386" s="32" t="s">
@@ -30943,10 +30983,10 @@
       <c r="E387" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F387" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G387" s="55" t="s">
+      <c r="F387" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G387" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H387" s="32" t="s">
@@ -31006,10 +31046,10 @@
       <c r="E388" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F388" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G388" s="55" t="s">
+      <c r="F388" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G388" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H388" s="32" t="s">
@@ -31069,10 +31109,10 @@
       <c r="E389" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F389" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G389" s="55" t="s">
+      <c r="F389" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G389" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H389" s="32" t="s">
@@ -31132,10 +31172,10 @@
       <c r="E390" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F390" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G390" s="55" t="s">
+      <c r="F390" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G390" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H390" s="32" t="s">
@@ -31195,10 +31235,10 @@
       <c r="E391" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F391" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G391" s="55" t="s">
+      <c r="F391" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G391" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H391" s="32" t="s">
@@ -31258,10 +31298,10 @@
       <c r="E392" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F392" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G392" s="55" t="s">
+      <c r="F392" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G392" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H392" s="32" t="s">
@@ -31321,10 +31361,10 @@
       <c r="E393" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F393" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G393" s="55" t="s">
+      <c r="F393" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G393" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H393" s="32" t="s">
@@ -31384,10 +31424,10 @@
       <c r="E394" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F394" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G394" s="55" t="s">
+      <c r="F394" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G394" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H394" s="32" t="s">
@@ -31447,10 +31487,10 @@
       <c r="E395" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F395" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G395" s="55" t="s">
+      <c r="F395" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G395" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H395" s="32" t="s">
@@ -31510,10 +31550,10 @@
       <c r="E396" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F396" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G396" s="55" t="s">
+      <c r="F396" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G396" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H396" s="32" t="s">
@@ -31573,10 +31613,10 @@
       <c r="E397" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F397" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G397" s="55" t="s">
+      <c r="F397" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G397" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H397" s="32" t="s">
@@ -31636,10 +31676,10 @@
       <c r="E398" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F398" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G398" s="55" t="s">
+      <c r="F398" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G398" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H398" s="32" t="s">
@@ -31699,10 +31739,10 @@
       <c r="E399" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F399" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G399" s="55" t="s">
+      <c r="F399" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G399" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H399" s="32" t="s">
@@ -31762,10 +31802,10 @@
       <c r="E400" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F400" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G400" s="55" t="s">
+      <c r="F400" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G400" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H400" s="32" t="s">
@@ -31825,10 +31865,10 @@
       <c r="E401" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F401" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G401" s="55" t="s">
+      <c r="F401" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G401" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H401" s="32" t="s">
@@ -31888,10 +31928,10 @@
       <c r="E402" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F402" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G402" s="55" t="s">
+      <c r="F402" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G402" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H402" s="32" t="s">
@@ -31951,10 +31991,10 @@
       <c r="E403" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F403" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G403" s="55" t="s">
+      <c r="F403" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G403" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H403" s="32" t="s">
@@ -32014,10 +32054,10 @@
       <c r="E404" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F404" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G404" s="55" t="s">
+      <c r="F404" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G404" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H404" s="32" t="s">
@@ -32077,10 +32117,10 @@
       <c r="E405" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F405" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G405" s="55" t="s">
+      <c r="F405" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G405" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H405" s="32" t="s">
@@ -32140,10 +32180,10 @@
       <c r="E406" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F406" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G406" s="55" t="s">
+      <c r="F406" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G406" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H406" s="32" t="s">
@@ -32203,10 +32243,10 @@
       <c r="E407" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F407" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G407" s="55" t="s">
+      <c r="F407" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G407" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H407" s="32" t="s">
@@ -32266,11 +32306,11 @@
       <c r="E408" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F408" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G408" s="55" t="s">
-        <v>26</v>
+      <c r="F408" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G408" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H408" s="32" t="s">
         <v>1081</v>
@@ -32329,10 +32369,10 @@
       <c r="E409" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F409" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G409" s="55" t="s">
+      <c r="F409" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G409" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H409" s="32" t="s">
@@ -32392,11 +32432,11 @@
       <c r="E410" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F410" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G410" s="55" t="s">
-        <v>26</v>
+      <c r="F410" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G410" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H410" s="32" t="s">
         <v>1081</v>
@@ -32455,11 +32495,11 @@
       <c r="E411" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F411" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G411" s="55" t="s">
-        <v>26</v>
+      <c r="F411" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G411" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H411" s="32" t="s">
         <v>1081</v>
@@ -32518,10 +32558,10 @@
       <c r="E412" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F412" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G412" s="55" t="s">
+      <c r="F412" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G412" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H412" s="32" t="s">
@@ -32581,10 +32621,10 @@
       <c r="E413" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F413" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G413" s="55" t="s">
+      <c r="F413" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G413" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H413" s="32" t="s">
@@ -32644,11 +32684,11 @@
       <c r="E414" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F414" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G414" s="55" t="s">
-        <v>26</v>
+      <c r="F414" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G414" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H414" s="32" t="s">
         <v>1081</v>
@@ -32707,10 +32747,10 @@
       <c r="E415" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F415" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G415" s="55" t="s">
+      <c r="F415" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G415" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H415" s="32" t="s">
@@ -32770,10 +32810,10 @@
       <c r="E416" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F416" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G416" s="55" t="s">
+      <c r="F416" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G416" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H416" s="32" t="s">
@@ -32833,10 +32873,10 @@
       <c r="E417" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="F417" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G417" s="55" t="s">
+      <c r="F417" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G417" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H417" s="32" t="s">
@@ -32896,11 +32936,11 @@
       <c r="E418" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F418" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G418" s="55" t="s">
-        <v>26</v>
+      <c r="F418" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G418" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H418" s="32" t="s">
         <v>1081</v>
@@ -32959,10 +32999,10 @@
       <c r="E419" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F419" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G419" s="55" t="s">
+      <c r="F419" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G419" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H419" s="32" t="s">
@@ -33022,10 +33062,10 @@
       <c r="E420" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F420" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G420" s="55" t="s">
+      <c r="F420" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G420" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H420" s="32" t="s">
@@ -33085,10 +33125,10 @@
       <c r="E421" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F421" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G421" s="55" t="s">
+      <c r="F421" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G421" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H421" s="32" t="s">
@@ -33148,11 +33188,11 @@
       <c r="E422" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F422" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G422" s="55" t="s">
-        <v>26</v>
+      <c r="F422" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G422" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H422" s="32" t="s">
         <v>1081</v>
@@ -33211,10 +33251,10 @@
       <c r="E423" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F423" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G423" s="55" t="s">
+      <c r="F423" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G423" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H423" s="32" t="s">
@@ -33274,11 +33314,11 @@
       <c r="E424" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F424" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G424" s="55" t="s">
-        <v>26</v>
+      <c r="F424" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G424" s="53" t="s">
+        <v>1199</v>
       </c>
       <c r="H424" s="32" t="s">
         <v>1081</v>
@@ -33337,11 +33377,11 @@
       <c r="E425" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F425" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G425" s="55" t="s">
-        <v>26</v>
+      <c r="F425" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G425" s="53" t="s">
+        <v>1204</v>
       </c>
       <c r="H425" s="32" t="s">
         <v>1081</v>
@@ -33400,10 +33440,10 @@
       <c r="E426" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F426" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G426" s="55" t="s">
+      <c r="F426" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G426" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H426" s="32" t="s">
@@ -33463,11 +33503,11 @@
       <c r="E427" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F427" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G427" s="55" t="s">
-        <v>26</v>
+      <c r="F427" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G427" s="53" t="s">
+        <v>1203</v>
       </c>
       <c r="H427" s="32" t="s">
         <v>1081</v>
@@ -33526,10 +33566,10 @@
       <c r="E428" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F428" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G428" s="55" t="s">
+      <c r="F428" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G428" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H428" s="32" t="s">
@@ -33589,10 +33629,10 @@
       <c r="E429" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F429" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G429" s="55" t="s">
+      <c r="F429" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G429" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H429" s="32" t="s">
@@ -33652,10 +33692,10 @@
       <c r="E430" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F430" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G430" s="55" t="s">
+      <c r="F430" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G430" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H430" s="32" t="s">
@@ -33715,10 +33755,10 @@
       <c r="E431" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F431" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G431" s="55" t="s">
+      <c r="F431" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G431" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H431" s="32" t="s">
@@ -33778,10 +33818,10 @@
       <c r="E432" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F432" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G432" s="55" t="s">
+      <c r="F432" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G432" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H432" s="32" t="s">
@@ -33841,10 +33881,10 @@
       <c r="E433" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F433" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G433" s="55" t="s">
+      <c r="F433" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G433" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H433" s="32" t="s">
@@ -33904,10 +33944,10 @@
       <c r="E434" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F434" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G434" s="55" t="s">
+      <c r="F434" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G434" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H434" s="32" t="s">
@@ -33967,10 +34007,10 @@
       <c r="E435" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F435" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G435" s="55" t="s">
+      <c r="F435" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G435" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H435" s="32" t="s">
@@ -34030,10 +34070,10 @@
       <c r="E436" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F436" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G436" s="55" t="s">
+      <c r="F436" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G436" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H436" s="32" t="s">
@@ -34093,10 +34133,10 @@
       <c r="E437" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F437" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G437" s="55" t="s">
+      <c r="F437" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G437" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H437" s="32" t="s">
@@ -34156,10 +34196,10 @@
       <c r="E438" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F438" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G438" s="55" t="s">
+      <c r="F438" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G438" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H438" s="32" t="s">
@@ -34219,10 +34259,10 @@
       <c r="E439" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F439" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G439" s="55" t="s">
+      <c r="F439" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G439" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H439" s="32" t="s">
@@ -34282,10 +34322,10 @@
       <c r="E440" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F440" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G440" s="55" t="s">
+      <c r="F440" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H440" s="32" t="s">
@@ -34345,10 +34385,10 @@
       <c r="E441" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F441" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G441" s="55" t="s">
+      <c r="F441" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G441" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H441" s="32" t="s">
@@ -34408,10 +34448,10 @@
       <c r="E442" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F442" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G442" s="55" t="s">
+      <c r="F442" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G442" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H442" s="32" t="s">
@@ -34471,10 +34511,10 @@
       <c r="E443" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F443" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G443" s="55" t="s">
+      <c r="F443" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G443" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H443" s="32" t="s">
@@ -34534,10 +34574,10 @@
       <c r="E444" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F444" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G444" s="55" t="s">
+      <c r="F444" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G444" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H444" s="32" t="s">
@@ -34597,10 +34637,10 @@
       <c r="E445" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F445" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G445" s="55" t="s">
+      <c r="F445" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G445" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H445" s="32" t="s">
@@ -34660,10 +34700,10 @@
       <c r="E446" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F446" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G446" s="55" t="s">
+      <c r="F446" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G446" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H446" s="32" t="s">
@@ -34723,10 +34763,10 @@
       <c r="E447" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F447" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G447" s="55" t="s">
+      <c r="F447" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G447" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H447" s="32" t="s">
@@ -34786,10 +34826,10 @@
       <c r="E448" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F448" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G448" s="55" t="s">
+      <c r="F448" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G448" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H448" s="32" t="s">
@@ -34849,10 +34889,10 @@
       <c r="E449" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F449" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G449" s="55" t="s">
+      <c r="F449" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G449" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H449" s="32" t="s">
@@ -34912,10 +34952,10 @@
       <c r="E450" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F450" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G450" s="55" t="s">
+      <c r="F450" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G450" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H450" s="32" t="s">
@@ -34975,10 +35015,10 @@
       <c r="E451" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F451" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G451" s="55" t="s">
+      <c r="F451" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G451" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H451" s="32" t="s">
@@ -35038,11 +35078,11 @@
       <c r="E452" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F452" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G452" s="55" t="s">
-        <v>26</v>
+      <c r="F452" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G452" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H452" s="32" t="s">
         <v>1081</v>
@@ -35101,10 +35141,10 @@
       <c r="E453" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F453" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G453" s="55" t="s">
+      <c r="F453" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G453" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H453" s="32" t="s">
@@ -35164,11 +35204,11 @@
       <c r="E454" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F454" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G454" s="55" t="s">
-        <v>26</v>
+      <c r="F454" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G454" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H454" s="32" t="s">
         <v>1081</v>
@@ -35227,10 +35267,10 @@
       <c r="E455" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F455" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G455" s="55" t="s">
+      <c r="F455" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G455" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H455" s="32" t="s">
@@ -35290,10 +35330,10 @@
       <c r="E456" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F456" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G456" s="55" t="s">
+      <c r="F456" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G456" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H456" s="32" t="s">
@@ -35353,10 +35393,10 @@
       <c r="E457" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F457" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G457" s="55" t="s">
+      <c r="F457" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G457" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H457" s="32" t="s">
@@ -35416,10 +35456,10 @@
       <c r="E458" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F458" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G458" s="55" t="s">
+      <c r="F458" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G458" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H458" s="32" t="s">
@@ -35479,10 +35519,10 @@
       <c r="E459" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F459" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G459" s="55" t="s">
+      <c r="F459" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G459" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H459" s="32" t="s">
@@ -35542,10 +35582,10 @@
       <c r="E460" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F460" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G460" s="55" t="s">
+      <c r="F460" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G460" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H460" s="32" t="s">
@@ -35605,10 +35645,10 @@
       <c r="E461" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F461" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G461" s="55" t="s">
+      <c r="F461" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G461" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H461" s="32" t="s">
@@ -35668,10 +35708,10 @@
       <c r="E462" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F462" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G462" s="55" t="s">
+      <c r="F462" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G462" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H462" s="32" t="s">
@@ -35731,10 +35771,10 @@
       <c r="E463" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F463" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G463" s="55" t="s">
+      <c r="F463" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G463" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H463" s="32" t="s">
@@ -35794,10 +35834,10 @@
       <c r="E464" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F464" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G464" s="55" t="s">
+      <c r="F464" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G464" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H464" s="32" t="s">
@@ -35857,10 +35897,10 @@
       <c r="E465" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F465" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G465" s="55" t="s">
+      <c r="F465" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G465" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H465" s="32" t="s">
@@ -35920,10 +35960,10 @@
       <c r="E466" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F466" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G466" s="55" t="s">
+      <c r="F466" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G466" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H466" s="32" t="s">
@@ -35983,10 +36023,10 @@
       <c r="E467" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F467" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G467" s="55" t="s">
+      <c r="F467" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G467" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H467" s="32" t="s">
@@ -36046,10 +36086,10 @@
       <c r="E468" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F468" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G468" s="55" t="s">
+      <c r="F468" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G468" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H468" s="32" t="s">
@@ -36109,11 +36149,11 @@
       <c r="E469" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F469" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G469" s="55" t="s">
-        <v>26</v>
+      <c r="F469" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G469" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H469" s="32" t="s">
         <v>1081</v>
@@ -36172,11 +36212,11 @@
       <c r="E470" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F470" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G470" s="55" t="s">
-        <v>26</v>
+      <c r="F470" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G470" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H470" s="32" t="s">
         <v>1081</v>
@@ -36235,10 +36275,10 @@
       <c r="E471" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F471" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G471" s="55" t="s">
+      <c r="F471" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G471" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H471" s="32" t="s">
@@ -36298,10 +36338,10 @@
       <c r="E472" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F472" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G472" s="55" t="s">
+      <c r="F472" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G472" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H472" s="32" t="s">
@@ -36361,10 +36401,10 @@
       <c r="E473" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F473" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G473" s="55" t="s">
+      <c r="F473" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G473" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H473" s="32" t="s">
@@ -36424,10 +36464,10 @@
       <c r="E474" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F474" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G474" s="55" t="s">
+      <c r="F474" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G474" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H474" s="32" t="s">
@@ -36487,10 +36527,10 @@
       <c r="E475" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F475" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G475" s="55" t="s">
+      <c r="F475" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G475" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H475" s="32" t="s">
@@ -36550,10 +36590,10 @@
       <c r="E476" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F476" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G476" s="55" t="s">
+      <c r="F476" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G476" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H476" s="32" t="s">
@@ -36613,10 +36653,10 @@
       <c r="E477" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F477" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G477" s="55" t="s">
+      <c r="F477" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G477" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H477" s="32" t="s">
@@ -36676,10 +36716,10 @@
       <c r="E478" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F478" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G478" s="55" t="s">
+      <c r="F478" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G478" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H478" s="32" t="s">
@@ -36739,10 +36779,10 @@
       <c r="E479" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F479" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G479" s="55" t="s">
+      <c r="F479" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G479" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H479" s="32" t="s">
@@ -36802,10 +36842,10 @@
       <c r="E480" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F480" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G480" s="55" t="s">
+      <c r="F480" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G480" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H480" s="32" t="s">
@@ -36865,10 +36905,10 @@
       <c r="E481" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F481" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G481" s="55" t="s">
+      <c r="F481" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G481" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H481" s="32" t="s">
@@ -36928,10 +36968,10 @@
       <c r="E482" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F482" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G482" s="55" t="s">
+      <c r="F482" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G482" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H482" s="32" t="s">
@@ -36991,10 +37031,10 @@
       <c r="E483" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F483" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G483" s="55" t="s">
+      <c r="F483" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G483" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H483" s="32" t="s">
@@ -37054,10 +37094,10 @@
       <c r="E484" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F484" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G484" s="55" t="s">
+      <c r="F484" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G484" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H484" s="32" t="s">
@@ -37117,10 +37157,10 @@
       <c r="E485" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F485" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G485" s="55" t="s">
+      <c r="F485" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G485" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H485" s="32" t="s">
@@ -37180,10 +37220,10 @@
       <c r="E486" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F486" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G486" s="55" t="s">
+      <c r="F486" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G486" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H486" s="32" t="s">
@@ -37243,10 +37283,10 @@
       <c r="E487" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F487" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G487" s="55" t="s">
+      <c r="F487" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G487" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H487" s="32" t="s">
@@ -37306,10 +37346,10 @@
       <c r="E488" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F488" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G488" s="55" t="s">
+      <c r="F488" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G488" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H488" s="32" t="s">
@@ -37369,10 +37409,10 @@
       <c r="E489" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F489" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G489" s="55" t="s">
+      <c r="F489" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G489" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H489" s="32" t="s">
@@ -37432,10 +37472,10 @@
       <c r="E490" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F490" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G490" s="55" t="s">
+      <c r="F490" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G490" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H490" s="32" t="s">
@@ -37495,10 +37535,10 @@
       <c r="E491" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F491" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G491" s="55" t="s">
+      <c r="F491" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G491" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H491" s="32" t="s">
@@ -37558,10 +37598,10 @@
       <c r="E492" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F492" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G492" s="55" t="s">
+      <c r="F492" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G492" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H492" s="32" t="s">
@@ -37621,10 +37661,10 @@
       <c r="E493" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F493" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G493" s="55" t="s">
+      <c r="F493" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G493" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H493" s="32" t="s">
@@ -37684,10 +37724,10 @@
       <c r="E494" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F494" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G494" s="55" t="s">
+      <c r="F494" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G494" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H494" s="32" t="s">
@@ -37747,10 +37787,10 @@
       <c r="E495" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F495" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G495" s="55" t="s">
+      <c r="F495" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G495" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H495" s="32" t="s">
@@ -37810,10 +37850,10 @@
       <c r="E496" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F496" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G496" s="55" t="s">
+      <c r="F496" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G496" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H496" s="32" t="s">
@@ -37873,11 +37913,11 @@
       <c r="E497" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F497" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G497" s="55" t="s">
-        <v>26</v>
+      <c r="F497" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G497" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H497" s="32" t="s">
         <v>1081</v>
@@ -37936,11 +37976,11 @@
       <c r="E498" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F498" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G498" s="55" t="s">
-        <v>26</v>
+      <c r="F498" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G498" s="53" t="s">
+        <v>1206</v>
       </c>
       <c r="H498" s="32" t="s">
         <v>1081</v>
@@ -37999,10 +38039,10 @@
       <c r="E499" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F499" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G499" s="55" t="s">
+      <c r="F499" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G499" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H499" s="32" t="s">
@@ -38062,10 +38102,10 @@
       <c r="E500" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F500" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G500" s="55" t="s">
+      <c r="F500" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G500" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H500" s="32" t="s">
@@ -38125,10 +38165,10 @@
       <c r="E501" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F501" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G501" s="55" t="s">
+      <c r="F501" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G501" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H501" s="32" t="s">
@@ -38188,10 +38228,10 @@
       <c r="E502" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F502" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G502" s="55" t="s">
+      <c r="F502" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G502" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H502" s="32" t="s">
@@ -38251,10 +38291,10 @@
       <c r="E503" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F503" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G503" s="55" t="s">
+      <c r="F503" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G503" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H503" s="32" t="s">
@@ -38314,10 +38354,10 @@
       <c r="E504" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F504" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G504" s="55" t="s">
+      <c r="F504" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G504" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H504" s="32" t="s">
@@ -38377,10 +38417,10 @@
       <c r="E505" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F505" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G505" s="55" t="s">
+      <c r="F505" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G505" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H505" s="32" t="s">
@@ -38440,10 +38480,10 @@
       <c r="E506" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F506" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G506" s="55" t="s">
+      <c r="F506" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G506" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H506" s="32" t="s">
@@ -38503,10 +38543,10 @@
       <c r="E507" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F507" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G507" s="55" t="s">
+      <c r="F507" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G507" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H507" s="32" t="s">
@@ -38566,11 +38606,11 @@
       <c r="E508" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F508" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G508" s="55" t="s">
-        <v>26</v>
+      <c r="F508" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G508" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H508" s="32" t="s">
         <v>1081</v>
@@ -38629,11 +38669,11 @@
       <c r="E509" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F509" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G509" s="55" t="s">
-        <v>26</v>
+      <c r="F509" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G509" s="53" t="s">
+        <v>1201</v>
       </c>
       <c r="H509" s="32" t="s">
         <v>1081</v>
@@ -38692,10 +38732,10 @@
       <c r="E510" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F510" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G510" s="55" t="s">
+      <c r="F510" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G510" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H510" s="32" t="s">
@@ -38755,10 +38795,10 @@
       <c r="E511" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F511" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G511" s="55" t="s">
+      <c r="F511" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G511" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H511" s="32" t="s">
@@ -38818,10 +38858,10 @@
       <c r="E512" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F512" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G512" s="55" t="s">
+      <c r="F512" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G512" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H512" s="32" t="s">
@@ -38881,10 +38921,10 @@
       <c r="E513" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F513" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G513" s="55" t="s">
+      <c r="F513" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G513" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H513" s="32" t="s">
@@ -38944,10 +38984,10 @@
       <c r="E514" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F514" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G514" s="55" t="s">
+      <c r="F514" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G514" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H514" s="32" t="s">
@@ -39007,10 +39047,10 @@
       <c r="E515" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F515" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G515" s="55" t="s">
+      <c r="F515" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G515" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H515" s="32" t="s">
@@ -39070,10 +39110,10 @@
       <c r="E516" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="F516" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G516" s="55" t="s">
+      <c r="F516" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G516" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H516" s="32" t="s">
@@ -39133,11 +39173,11 @@
       <c r="E517" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F517" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G517" s="55" t="s">
-        <v>26</v>
+      <c r="F517" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G517" s="53" t="s">
+        <v>1197</v>
       </c>
       <c r="H517" s="32" t="s">
         <v>1081</v>
@@ -39196,10 +39236,10 @@
       <c r="E518" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F518" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G518" s="55" t="s">
+      <c r="F518" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G518" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H518" s="32" t="s">
@@ -39259,10 +39299,10 @@
       <c r="E519" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F519" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G519" s="55" t="s">
+      <c r="F519" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G519" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H519" s="32" t="s">
@@ -39322,10 +39362,10 @@
       <c r="E520" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F520" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G520" s="55" t="s">
+      <c r="F520" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G520" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H520" s="32" t="s">
@@ -39385,10 +39425,10 @@
       <c r="E521" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F521" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G521" s="55" t="s">
+      <c r="F521" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G521" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H521" s="32" t="s">
@@ -39448,10 +39488,10 @@
       <c r="E522" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F522" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G522" s="55" t="s">
+      <c r="F522" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G522" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H522" s="32" t="s">
@@ -39511,10 +39551,10 @@
       <c r="E523" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F523" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G523" s="55" t="s">
+      <c r="F523" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G523" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H523" s="32" t="s">
@@ -39574,10 +39614,10 @@
       <c r="E524" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F524" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G524" s="55" t="s">
+      <c r="F524" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G524" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H524" s="32" t="s">
@@ -39621,8 +39661,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S526">
-    <sortCondition ref="A1:A526"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S524">
+    <sortCondition ref="A1:A524"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
+++ b/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CSUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54339243-A27C-4E5D-84D4-68BD0BF8C75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F74CE-E3EA-4DE9-8F10-C414C1772302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="4" xr2:uid="{82C81399-C775-48F3-A336-58DE5F35A6D9}"/>
   </bookViews>
@@ -4701,9 +4701,6 @@
     <t>"Estereomicroscópios"</t>
   </si>
   <si>
-    <t>"Laringos</t>
-  </si>
-  <si>
     <t>"Negatoscópios"</t>
   </si>
   <si>
@@ -4906,6 +4903,9 @@
   </si>
   <si>
     <t>"Código de equipamento SUS que está disponível para uso"</t>
+  </si>
+  <si>
+    <t>"Laringos"</t>
   </si>
 </sst>
 </file>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45964.736617013892</v>
+        <v>45964.74032986111</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6040,8 +6040,8 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6054,7 +6054,7 @@
     <col min="6" max="6" width="13.19921875" style="19" customWidth="1"/>
     <col min="7" max="11" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" style="29" customWidth="1"/>
     <col min="14" max="14" width="14.8984375" style="29" customWidth="1"/>
     <col min="15" max="15" width="14" style="29" customWidth="1"/>
     <col min="16" max="16" width="50.19921875" style="19" bestFit="1" customWidth="1"/>
@@ -7400,7 +7400,7 @@
         <v>1148</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>26</v>
@@ -7434,10 +7434,10 @@
         <v>SUS.Robot</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R16" s="38" t="s">
         <v>26</v>
@@ -7522,10 +7522,10 @@
         <v>SUS.Equipamento</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R17" s="38" t="s">
         <v>26</v>
@@ -7613,7 +7613,7 @@
         <v>1135</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="R18" s="38" t="s">
         <v>26</v>
@@ -7701,7 +7701,7 @@
         <v>1230</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="R19" s="38" t="s">
         <v>26</v>
@@ -7837,7 +7837,7 @@
         <v>1149</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>1073</v>
@@ -7925,7 +7925,7 @@
         <v>1149</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>1256</v>
@@ -8013,7 +8013,7 @@
         <v>1149</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>1242</v>
@@ -8323,9 +8323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BDC5BB-8D15-494A-83A5-A8214C58707E}">
   <dimension ref="A1:Y557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O144" sqref="O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8926,7 +8926,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K8" s="52" t="s">
         <v>1259</v>
@@ -8979,7 +8979,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>1148</v>
@@ -9003,10 +9003,10 @@
         <v>26</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>26</v>
@@ -9080,7 +9080,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K10" s="52" t="s">
         <v>1221</v>
@@ -9157,7 +9157,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="K11" s="52" t="s">
         <v>1220</v>
@@ -10442,7 +10442,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>1073</v>
@@ -10469,7 +10469,7 @@
         <v>1178</v>
       </c>
       <c r="K28" s="52" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L28" s="31" t="s">
         <v>26</v>
@@ -12751,7 +12751,7 @@
         <v>1260</v>
       </c>
       <c r="K57" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L57" s="31" t="s">
         <v>1074</v>
@@ -15131,7 +15131,7 @@
         <v>1260</v>
       </c>
       <c r="K87" s="52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L87" s="31" t="s">
         <v>1074</v>
@@ -15782,7 +15782,7 @@
         <v>1063</v>
       </c>
       <c r="O95" s="60" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="P95" s="31" t="s">
         <v>1020</v>
@@ -16098,7 +16098,7 @@
         <v>1063</v>
       </c>
       <c r="O99" s="60" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="P99" s="31" t="s">
         <v>1020</v>
@@ -16256,7 +16256,7 @@
         <v>1063</v>
       </c>
       <c r="O101" s="60" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="P101" s="31" t="s">
         <v>1020</v>
@@ -17053,7 +17053,7 @@
         <v>1063</v>
       </c>
       <c r="O111" s="60" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="P111" s="31" t="s">
         <v>1020</v>
@@ -17107,7 +17107,7 @@
         <v>1196</v>
       </c>
       <c r="G112" s="54" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H112" s="53" t="s">
         <v>26</v>
@@ -17187,7 +17187,7 @@
         <v>1196</v>
       </c>
       <c r="G113" s="54" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H113" s="53" t="s">
         <v>26</v>
@@ -17690,7 +17690,7 @@
         <v>1063</v>
       </c>
       <c r="O119" s="60" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P119" s="31" t="s">
         <v>1020</v>
@@ -18077,7 +18077,7 @@
         <v>1260</v>
       </c>
       <c r="K124" s="52" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="L124" s="31" t="s">
         <v>1074</v>
@@ -18157,7 +18157,7 @@
         <v>1260</v>
       </c>
       <c r="K125" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L125" s="31" t="s">
         <v>1074</v>
@@ -18237,7 +18237,7 @@
         <v>1260</v>
       </c>
       <c r="K126" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L126" s="31" t="s">
         <v>1074</v>
@@ -18305,7 +18305,7 @@
         <v>1272</v>
       </c>
       <c r="G127" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H127" s="53" t="s">
         <v>26</v>
@@ -18317,7 +18317,7 @@
         <v>1178</v>
       </c>
       <c r="K127" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L127" s="31" t="s">
         <v>1074</v>
@@ -18385,7 +18385,7 @@
         <v>1272</v>
       </c>
       <c r="G128" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H128" s="53" t="s">
         <v>26</v>
@@ -18397,7 +18397,7 @@
         <v>1178</v>
       </c>
       <c r="K128" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L128" s="31" t="s">
         <v>1074</v>
@@ -18784,7 +18784,7 @@
         <v>1198</v>
       </c>
       <c r="G133" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H133" s="53" t="s">
         <v>26</v>
@@ -18796,7 +18796,7 @@
         <v>1178</v>
       </c>
       <c r="K133" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L133" s="31" t="s">
         <v>1074</v>
@@ -19448,7 +19448,7 @@
         <v>1063</v>
       </c>
       <c r="O141" s="60" t="s">
-        <v>1535</v>
+        <v>1603</v>
       </c>
       <c r="P141" s="31" t="s">
         <v>1020</v>
@@ -20791,7 +20791,7 @@
         <v>1260</v>
       </c>
       <c r="K158" s="52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L158" s="31" t="s">
         <v>1074</v>
@@ -21189,7 +21189,7 @@
         <v>1260</v>
       </c>
       <c r="K163" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L163" s="31" t="s">
         <v>1074</v>
@@ -23902,7 +23902,7 @@
         <v>1260</v>
       </c>
       <c r="K197" s="52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L197" s="31" t="s">
         <v>1074</v>
@@ -24228,19 +24228,19 @@
         <v>1074</v>
       </c>
       <c r="M201" s="52" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O201" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P201" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q201" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R201" s="31" t="s">
         <v>26</v>
@@ -24288,7 +24288,7 @@
         <v>1272</v>
       </c>
       <c r="G202" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H202" s="53" t="s">
         <v>26</v>
@@ -24300,7 +24300,7 @@
         <v>1178</v>
       </c>
       <c r="K202" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L202" s="31" t="s">
         <v>1074</v>
@@ -24626,19 +24626,19 @@
         <v>1074</v>
       </c>
       <c r="M206" s="52" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="N206" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O206" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P206" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q206" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R206" s="31" t="s">
         <v>26</v>
@@ -26615,19 +26615,19 @@
         <v>1074</v>
       </c>
       <c r="M231" s="52" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="N231" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O231" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P231" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q231" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R231" s="31" t="s">
         <v>26</v>
@@ -27091,19 +27091,19 @@
         <v>1074</v>
       </c>
       <c r="M237" s="52" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="N237" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O237" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P237" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q237" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R237" s="31" t="s">
         <v>26</v>
@@ -27649,19 +27649,19 @@
         <v>1074</v>
       </c>
       <c r="M244" s="52" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="N244" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O244" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P244" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q244" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R244" s="31" t="s">
         <v>26</v>
@@ -28046,19 +28046,19 @@
         <v>1074</v>
       </c>
       <c r="M249" s="52" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="N249" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O249" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P249" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q249" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R249" s="31" t="s">
         <v>26</v>
@@ -28524,19 +28524,19 @@
         <v>1074</v>
       </c>
       <c r="M255" s="52" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="N255" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O255" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P255" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q255" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R255" s="31" t="s">
         <v>26</v>
@@ -28602,19 +28602,19 @@
         <v>1074</v>
       </c>
       <c r="M256" s="52" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="N256" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O256" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P256" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q256" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R256" s="31" t="s">
         <v>26</v>
@@ -30512,7 +30512,7 @@
         <v>1063</v>
       </c>
       <c r="O280" s="60" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="P280" s="31" t="s">
         <v>1020</v>
@@ -30825,19 +30825,19 @@
         <v>1074</v>
       </c>
       <c r="M284" s="52" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="N284" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O284" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P284" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q284" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R284" s="31" t="s">
         <v>26</v>
@@ -31375,7 +31375,7 @@
         <v>1260</v>
       </c>
       <c r="K291" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L291" s="31" t="s">
         <v>1074</v>
@@ -31541,19 +31541,19 @@
         <v>1074</v>
       </c>
       <c r="M293" s="52" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="N293" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O293" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P293" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q293" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R293" s="31" t="s">
         <v>26</v>
@@ -31858,19 +31858,19 @@
         <v>1074</v>
       </c>
       <c r="M297" s="52" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="N297" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O297" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P297" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q297" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R297" s="31" t="s">
         <v>26</v>
@@ -32806,7 +32806,7 @@
         <v>1260</v>
       </c>
       <c r="K309" s="52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L309" s="31" t="s">
         <v>1074</v>
@@ -33139,7 +33139,7 @@
         <v>1063</v>
       </c>
       <c r="O313" s="60" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="P313" s="31" t="s">
         <v>1020</v>
@@ -33617,7 +33617,7 @@
         <v>1063</v>
       </c>
       <c r="O319" s="60" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="P319" s="31" t="s">
         <v>1020</v>
@@ -33697,7 +33697,7 @@
         <v>1063</v>
       </c>
       <c r="O320" s="60" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="P320" s="31" t="s">
         <v>1020</v>
@@ -33770,19 +33770,19 @@
         <v>1074</v>
       </c>
       <c r="M321" s="52" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="N321" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O321" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P321" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q321" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R321" s="31" t="s">
         <v>26</v>
@@ -36405,19 +36405,19 @@
         <v>1074</v>
       </c>
       <c r="M354" s="52" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="N354" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O354" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P354" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q354" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R354" s="31" t="s">
         <v>26</v>
@@ -38249,7 +38249,7 @@
         <v>1063</v>
       </c>
       <c r="O377" s="60" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="P377" s="31" t="s">
         <v>1020</v>
@@ -38569,7 +38569,7 @@
         <v>1063</v>
       </c>
       <c r="O381" s="60" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="P381" s="31" t="s">
         <v>1020</v>
@@ -39609,7 +39609,7 @@
         <v>1063</v>
       </c>
       <c r="O394" s="60" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="P394" s="31" t="s">
         <v>1020</v>
@@ -39689,7 +39689,7 @@
         <v>1063</v>
       </c>
       <c r="O395" s="60" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="P395" s="31" t="s">
         <v>1020</v>
@@ -40399,19 +40399,19 @@
         <v>1074</v>
       </c>
       <c r="M404" s="52" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="N404" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O404" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P404" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q404" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R404" s="31" t="s">
         <v>26</v>
@@ -42315,19 +42315,19 @@
         <v>1074</v>
       </c>
       <c r="M428" s="52" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="N428" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O428" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P428" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R428" s="31" t="s">
         <v>26</v>
@@ -42393,19 +42393,19 @@
         <v>1074</v>
       </c>
       <c r="M429" s="52" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="N429" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O429" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P429" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q429" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R429" s="31" t="s">
         <v>26</v>
@@ -42551,19 +42551,19 @@
         <v>1074</v>
       </c>
       <c r="M431" s="52" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="N431" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O431" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P431" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q431" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R431" s="31" t="s">
         <v>26</v>
@@ -42709,19 +42709,19 @@
         <v>1074</v>
       </c>
       <c r="M433" s="52" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="N433" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O433" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P433" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q433" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R433" s="31" t="s">
         <v>26</v>
@@ -43486,7 +43486,7 @@
         <v>1198</v>
       </c>
       <c r="G443" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H443" s="53" t="s">
         <v>26</v>
@@ -43498,7 +43498,7 @@
         <v>1178</v>
       </c>
       <c r="K443" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L443" s="31" t="s">
         <v>1074</v>
@@ -43744,19 +43744,19 @@
         <v>1074</v>
       </c>
       <c r="M446" s="52" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="N446" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O446" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P446" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q446" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R446" s="31" t="s">
         <v>26</v>
@@ -43982,19 +43982,19 @@
         <v>1074</v>
       </c>
       <c r="M449" s="52" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="N449" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O449" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P449" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q449" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R449" s="31" t="s">
         <v>26</v>
@@ -44614,7 +44614,7 @@
         <v>1260</v>
       </c>
       <c r="K457" s="52" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L457" s="31" t="s">
         <v>1074</v>
@@ -44682,7 +44682,7 @@
         <v>1198</v>
       </c>
       <c r="G458" s="54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H458" s="53" t="s">
         <v>26</v>
@@ -44694,7 +44694,7 @@
         <v>1178</v>
       </c>
       <c r="K458" s="52" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L458" s="31" t="s">
         <v>1074</v>
@@ -44940,19 +44940,19 @@
         <v>1074</v>
       </c>
       <c r="M461" s="52" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="N461" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O461" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P461" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q461" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R461" s="31" t="s">
         <v>26</v>
@@ -46214,7 +46214,7 @@
         <v>1063</v>
       </c>
       <c r="O477" s="60" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="P477" s="31" t="s">
         <v>1020</v>
@@ -46447,19 +46447,19 @@
         <v>1074</v>
       </c>
       <c r="M480" s="52" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="N480" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O480" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P480" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q480" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R480" s="31" t="s">
         <v>26</v>
@@ -46525,19 +46525,19 @@
         <v>1074</v>
       </c>
       <c r="M481" s="52" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="N481" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O481" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P481" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q481" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R481" s="31" t="s">
         <v>26</v>
@@ -48119,19 +48119,19 @@
         <v>1074</v>
       </c>
       <c r="M501" s="52" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N501" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O501" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P501" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q501" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R501" s="31" t="s">
         <v>26</v>
@@ -48916,19 +48916,19 @@
         <v>1074</v>
       </c>
       <c r="M511" s="52" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N511" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O511" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P511" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q511" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R511" s="31" t="s">
         <v>26</v>
@@ -49001,7 +49001,7 @@
         <v>1063</v>
       </c>
       <c r="O512" s="60" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="P512" s="31" t="s">
         <v>1020</v>
@@ -49154,19 +49154,19 @@
         <v>1074</v>
       </c>
       <c r="M514" s="52" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N514" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O514" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P514" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q514" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R514" s="31" t="s">
         <v>26</v>
@@ -49232,19 +49232,19 @@
         <v>1074</v>
       </c>
       <c r="M515" s="52" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="N515" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O515" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P515" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q515" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R515" s="31" t="s">
         <v>26</v>
@@ -49389,19 +49389,19 @@
         <v>1074</v>
       </c>
       <c r="M517" s="52" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="N517" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O517" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P517" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q517" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R517" s="31" t="s">
         <v>26</v>
@@ -49632,7 +49632,7 @@
         <v>1063</v>
       </c>
       <c r="O520" s="60" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="P520" s="31" t="s">
         <v>1020</v>
@@ -50416,7 +50416,7 @@
         <v>1260</v>
       </c>
       <c r="K530" s="52" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="L530" s="31" t="s">
         <v>1074</v>
@@ -50660,19 +50660,19 @@
         <v>1074</v>
       </c>
       <c r="M533" s="52" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="N533" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O533" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P533" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q533" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R533" s="31" t="s">
         <v>26</v>
@@ -51693,19 +51693,19 @@
         <v>1074</v>
       </c>
       <c r="M546" s="52" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="N546" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="O546" s="60" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P546" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="Q546" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="R546" s="31" t="s">
         <v>26</v>
@@ -52004,7 +52004,7 @@
         <v>1260</v>
       </c>
       <c r="K550" s="52" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L550" s="31" t="s">
         <v>1074</v>
@@ -52575,7 +52575,7 @@
         <v>1063</v>
       </c>
       <c r="O557" s="60" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="P557" s="31" t="s">
         <v>1020</v>
@@ -52617,7 +52617,7 @@
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576 D1:XFD1048576">
+  <conditionalFormatting sqref="D1:XFD1048576 A1:B1048576">
     <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>

--- a/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
+++ b/Versão5/CSUS/Ontologia_CSUS_2Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CSUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6201FA-D724-4B1A-A137-2B14EDEE8B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EAD15-4609-4271-B872-618630209D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{82C81399-C775-48F3-A336-58DE5F35A6D9}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16337" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16361" uniqueCount="1842">
   <si>
     <t>Indivíduo</t>
   </si>
@@ -5608,6 +5608,18 @@
   </si>
   <si>
     <t>Formalizar Caderno SomaSUS elaborado pelo Sistema Único de Saúde do Brasil.</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
@@ -5696,7 +5708,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5841,6 +5853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -5893,7 +5911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6085,6 +6103,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6566,53 +6593,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A2B325-8A6F-407D-80B4-8D2A65666B5E}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.69921875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.5" style="2"/>
+    <col min="3" max="3" width="4.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="66" t="s">
+        <v>1838</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>1094</v>
       </c>
+      <c r="C2" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="C3" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="C4" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -6620,8 +6660,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
+      <c r="C5" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
@@ -6629,151 +6672,208 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
+      <c r="C6" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>1835</v>
       </c>
+      <c r="C8" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>597</v>
       </c>
+      <c r="C13" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C14" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C16" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>594</v>
       </c>
+      <c r="C17" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.388641203703</v>
+        <v>45992.538076041666</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C19" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C20" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="C21" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>1837</v>
       </c>
+      <c r="C22" s="67" t="s">
+        <v>1839</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>595</v>
       </c>
+      <c r="C23" s="67" t="s">
+        <v>1840</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="19" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>1836</v>
       </c>
       <c r="B24" s="21" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize the SomaSUS Notebook prepared by the Unified Health System of Brazil.</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
